--- a/Cnl/Mapeos_UBI_CNL_V1.xlsx
+++ b/Cnl/Mapeos_UBI_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="495" windowWidth="9225" windowHeight="4530" tabRatio="583"/>
+    <workbookView xWindow="285" yWindow="615" windowWidth="9225" windowHeight="4410" tabRatio="583" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T20TERCERO" sheetId="28" r:id="rId1"/>
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="347">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1544,6 +1544,63 @@
   </si>
   <si>
     <t>Validaciones Generales T26PAGADURIA /8. Búsqueda del correlativo Teléfono 2 Pagaduría</t>
+  </si>
+  <si>
+    <t>Busqueda del Departamento</t>
+  </si>
+  <si>
+    <t>Busqueda de la ciudad</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T20TERCERO /19. Búsqueda del Departamento</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T20TERCERO /20. Búsqueda de la ciudad</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T26PAGADURIA /9. Búsqueda del Departamento</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T26PAGADURIA /10. Búsqueda de la ciudad</t>
+  </si>
+  <si>
+    <t>Busqueda de la region</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T10OFICINA /6. Búsqueda de la región</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T10OFICINA /7. Búsqueda del Departamento</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T10OFICINA /8. Búsqueda de la ciudad</t>
+  </si>
+  <si>
+    <t>22,10</t>
+  </si>
+  <si>
+    <t>22,3</t>
+  </si>
+  <si>
+    <t>22,6</t>
+  </si>
+  <si>
+    <t>22,1</t>
+  </si>
+  <si>
+    <t>22,19</t>
+  </si>
+  <si>
+    <t>22,2</t>
+  </si>
+  <si>
+    <t>22,15</t>
+  </si>
+  <si>
+    <t>22,4</t>
+  </si>
+  <si>
+    <t>22,0</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1929,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2337,19 +2394,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -2506,7 +2550,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2599,12 +2643,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2624,12 +2662,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2652,7 +2684,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2664,15 +2696,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2683,10 +2715,9 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2699,7 +2730,7 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2743,6 +2774,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -3232,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N115" sqref="N115"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3272,28 +3306,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="114" t="s">
+      <c r="H2" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="77"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="25" t="s">
         <v>46</v>
       </c>
@@ -3304,13 +3338,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="78"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="46" t="s">
         <v>47</v>
       </c>
@@ -3321,11 +3355,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3337,29 +3371,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="128" t="s">
+      <c r="I7" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="129"/>
-      <c r="K7" s="130"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="121"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="112" t="s">
+      <c r="M7" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3424,31 +3458,31 @@
         <v>1</v>
       </c>
       <c r="F9" s="53"/>
-      <c r="G9" s="69"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="44"/>
-      <c r="I9" s="109">
+      <c r="I9" s="100">
         <v>39</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="L9" s="59"/>
+      <c r="L9" s="57"/>
       <c r="M9" s="37">
         <v>39</v>
       </c>
       <c r="N9" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="67" t="s">
+      <c r="O9" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P9" s="67" t="s">
+      <c r="P9" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="67" t="s">
+      <c r="Q9" s="65" t="s">
         <v>18</v>
       </c>
       <c r="R9" s="42" t="s">
@@ -3469,7 +3503,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="39"/>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="71" t="s">
         <v>251</v>
       </c>
       <c r="H10" s="44"/>
@@ -3479,26 +3513,26 @@
       <c r="J10" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="L10" s="59"/>
+      <c r="L10" s="57"/>
       <c r="M10" s="34">
         <v>40</v>
       </c>
       <c r="N10" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="O10" s="65" t="s">
+      <c r="O10" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P10" s="65" t="s">
+      <c r="P10" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="65" t="s">
+      <c r="Q10" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="104" t="s">
+      <c r="R10" s="96" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3515,8 +3549,8 @@
       <c r="E11" s="39">
         <v>30</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="79"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="44"/>
       <c r="I11" s="43">
         <v>41</v>
@@ -3527,20 +3561,20 @@
       <c r="K11" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="59"/>
+      <c r="L11" s="57"/>
       <c r="M11" s="34">
         <v>41</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="O11" s="65" t="s">
+      <c r="O11" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="65" t="s">
+      <c r="P11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="65" t="s">
+      <c r="Q11" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R11" s="38"/>
@@ -3558,8 +3592,8 @@
       <c r="E12" s="39">
         <v>40</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="79"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="44"/>
       <c r="I12" s="43">
         <v>42</v>
@@ -3570,26 +3604,26 @@
       <c r="K12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="59"/>
+      <c r="L12" s="57"/>
       <c r="M12" s="24">
         <v>42</v>
       </c>
       <c r="N12" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="O12" s="65" t="s">
+      <c r="O12" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="65" t="s">
+      <c r="P12" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="65" t="s">
+      <c r="Q12" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R12" s="38"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="84">
+      <c r="B13" s="76">
         <v>5</v>
       </c>
       <c r="C13" s="39" t="s">
@@ -3601,8 +3635,8 @@
       <c r="E13" s="39">
         <v>20</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="102"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="44"/>
       <c r="I13" s="43">
         <v>43</v>
@@ -3610,7 +3644,7 @@
       <c r="J13" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="60" t="s">
         <v>254</v>
       </c>
       <c r="L13" s="52"/>
@@ -3623,10 +3657,10 @@
       <c r="O13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="65" t="s">
+      <c r="P13" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="65" t="s">
+      <c r="Q13" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R13" s="38"/>
@@ -3644,8 +3678,8 @@
       <c r="E14" s="39">
         <v>20</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="103"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="44"/>
       <c r="I14" s="43">
         <v>44</v>
@@ -3653,7 +3687,7 @@
       <c r="J14" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="56" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="52"/>
@@ -3666,10 +3700,10 @@
       <c r="O14" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="65" t="s">
+      <c r="P14" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q14" s="65" t="s">
+      <c r="Q14" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R14" s="38"/>
@@ -3687,8 +3721,8 @@
       <c r="E15" s="39">
         <v>13</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="103"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="95"/>
       <c r="H15" s="44"/>
       <c r="I15" s="43">
         <v>45</v>
@@ -3696,7 +3730,7 @@
       <c r="J15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="56" t="s">
         <v>41</v>
       </c>
       <c r="L15" s="52"/>
@@ -3706,19 +3740,19 @@
       <c r="N15" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="O15" s="65" t="s">
+      <c r="O15" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="65" t="s">
+      <c r="P15" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="65" t="s">
+      <c r="Q15" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R15" s="38"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="84">
+      <c r="B16" s="76">
         <v>8</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -3730,8 +3764,8 @@
       <c r="E16" s="39">
         <v>20</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="103"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="44"/>
       <c r="I16" s="43">
         <v>46</v>
@@ -3739,7 +3773,7 @@
       <c r="J16" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="58" t="s">
+      <c r="K16" s="56" t="s">
         <v>255</v>
       </c>
       <c r="L16" s="52"/>
@@ -3755,7 +3789,7 @@
       <c r="P16" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="65" t="s">
+      <c r="Q16" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R16" s="38"/>
@@ -3773,8 +3807,8 @@
       <c r="E17" s="39">
         <v>80</v>
       </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="103"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="95"/>
       <c r="H17" s="44"/>
       <c r="I17" s="43">
         <v>47</v>
@@ -3782,7 +3816,7 @@
       <c r="J17" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="58" t="s">
+      <c r="K17" s="56" t="s">
         <v>256</v>
       </c>
       <c r="L17" s="52"/>
@@ -3795,13 +3829,13 @@
       <c r="O17" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="65" t="s">
+      <c r="P17" s="63" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="104" t="s">
+      <c r="R17" s="96" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3818,8 +3852,8 @@
       <c r="E18" s="39">
         <v>10</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="103"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="95"/>
       <c r="H18" s="44"/>
       <c r="I18" s="43">
         <v>48</v>
@@ -3827,29 +3861,29 @@
       <c r="J18" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="K18" s="58" t="s">
+      <c r="K18" s="56" t="s">
         <v>257</v>
       </c>
       <c r="L18" s="52"/>
-      <c r="M18" s="63">
+      <c r="M18" s="61">
         <v>45</v>
       </c>
-      <c r="N18" s="88" t="s">
+      <c r="N18" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="O18" s="89" t="s">
+      <c r="O18" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="89" t="s">
+      <c r="P18" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="64"/>
+      <c r="Q18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="84">
+      <c r="B19" s="76">
         <v>11</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -3861,8 +3895,8 @@
       <c r="E19" s="39">
         <v>20</v>
       </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="103"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="95"/>
       <c r="H19" s="44"/>
       <c r="I19" s="43">
         <v>49</v>
@@ -3870,26 +3904,26 @@
       <c r="J19" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="58" t="s">
+      <c r="K19" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="L19" s="85"/>
-      <c r="M19" s="90">
+      <c r="L19" s="77"/>
+      <c r="M19" s="82">
         <v>45</v>
       </c>
-      <c r="N19" s="91" t="s">
+      <c r="N19" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="92" t="s">
+      <c r="O19" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P19" s="92" t="s">
+      <c r="P19" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="93"/>
+      <c r="Q19" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="85"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="51">
@@ -3904,8 +3938,8 @@
       <c r="E20" s="39">
         <v>20</v>
       </c>
-      <c r="F20" s="80"/>
-      <c r="G20" s="103"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="95"/>
       <c r="H20" s="44"/>
       <c r="I20" s="43">
         <v>50</v>
@@ -3913,26 +3947,26 @@
       <c r="J20" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="58" t="s">
+      <c r="K20" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="L20" s="101"/>
-      <c r="M20" s="60">
+      <c r="L20" s="93"/>
+      <c r="M20" s="58">
         <v>46</v>
       </c>
       <c r="N20" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="O20" s="67" t="s">
+      <c r="O20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="67" t="s">
+      <c r="P20" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="67" t="s">
+      <c r="Q20" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="105" t="s">
+      <c r="R20" s="97" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3949,8 +3983,8 @@
       <c r="E21" s="39">
         <v>50</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="103"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="95"/>
       <c r="H21" s="44"/>
       <c r="I21" s="43">
         <v>51</v>
@@ -3958,7 +3992,7 @@
       <c r="J21" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="58" t="s">
+      <c r="K21" s="56" t="s">
         <v>260</v>
       </c>
       <c r="L21" s="52"/>
@@ -3968,21 +4002,21 @@
       <c r="N21" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="O21" s="65" t="s">
+      <c r="O21" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P21" s="65" t="s">
+      <c r="P21" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="65" t="s">
+      <c r="Q21" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="58" t="s">
+      <c r="R21" s="56" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="84">
+      <c r="B22" s="76">
         <v>14</v>
       </c>
       <c r="C22" s="39" t="s">
@@ -3994,8 +4028,8 @@
       <c r="E22" s="39">
         <v>20</v>
       </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="103"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="95"/>
       <c r="H22" s="44"/>
       <c r="I22" s="43">
         <v>52</v>
@@ -4003,7 +4037,7 @@
       <c r="J22" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="K22" s="58" t="s">
+      <c r="K22" s="56" t="s">
         <v>261</v>
       </c>
       <c r="L22" s="52"/>
@@ -4013,13 +4047,13 @@
       <c r="N22" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="O22" s="65" t="s">
+      <c r="O22" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P22" s="65" t="s">
+      <c r="P22" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="65" t="s">
+      <c r="Q22" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R22" s="35"/>
@@ -4037,8 +4071,8 @@
       <c r="E23" s="39">
         <v>15</v>
       </c>
-      <c r="F23" s="80"/>
-      <c r="G23" s="103"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="44"/>
       <c r="I23" s="43">
         <v>53</v>
@@ -4046,7 +4080,7 @@
       <c r="J23" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="K23" s="58" t="s">
+      <c r="K23" s="56" t="s">
         <v>262</v>
       </c>
       <c r="L23" s="52"/>
@@ -4056,13 +4090,13 @@
       <c r="N23" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="O23" s="65" t="s">
+      <c r="O23" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="65" t="s">
+      <c r="P23" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q23" s="65" t="s">
+      <c r="Q23" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R23" s="35"/>
@@ -4077,11 +4111,11 @@
       <c r="D24" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="39">
-        <v>22</v>
-      </c>
-      <c r="F24" s="80"/>
-      <c r="G24" s="103"/>
+      <c r="E24" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F24" s="72"/>
+      <c r="G24" s="95"/>
       <c r="H24" s="44"/>
       <c r="I24" s="43">
         <v>54</v>
@@ -4089,7 +4123,7 @@
       <c r="J24" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="58" t="s">
+      <c r="K24" s="56" t="s">
         <v>263</v>
       </c>
       <c r="L24" s="52"/>
@@ -4102,16 +4136,16 @@
       <c r="O24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="65" t="s">
+      <c r="P24" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q24" s="65" t="s">
+      <c r="Q24" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R24" s="35"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="84">
+      <c r="B25" s="76">
         <v>17</v>
       </c>
       <c r="C25" s="39" t="s">
@@ -4120,11 +4154,11 @@
       <c r="D25" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="39">
-        <v>22</v>
-      </c>
-      <c r="F25" s="80"/>
-      <c r="G25" s="103"/>
+      <c r="E25" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="95"/>
       <c r="H25" s="44"/>
       <c r="I25" s="43">
         <v>55</v>
@@ -4132,7 +4166,7 @@
       <c r="J25" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="K25" s="58" t="s">
+      <c r="K25" s="56" t="s">
         <v>264</v>
       </c>
       <c r="L25" s="52"/>
@@ -4142,13 +4176,13 @@
       <c r="N25" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="O25" s="65" t="s">
+      <c r="O25" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="P25" s="65" t="s">
+      <c r="P25" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q25" s="65" t="s">
+      <c r="Q25" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R25" s="35"/>
@@ -4163,11 +4197,11 @@
       <c r="D26" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="39">
-        <v>22</v>
-      </c>
-      <c r="F26" s="80"/>
-      <c r="G26" s="103"/>
+      <c r="E26" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="95"/>
       <c r="H26" s="44"/>
       <c r="I26" s="43">
         <v>56</v>
@@ -4175,7 +4209,7 @@
       <c r="J26" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="K26" s="58" t="s">
+      <c r="K26" s="56" t="s">
         <v>265</v>
       </c>
       <c r="L26" s="52"/>
@@ -4185,13 +4219,13 @@
       <c r="N26" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="O26" s="65" t="s">
+      <c r="O26" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="P26" s="65" t="s">
+      <c r="P26" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q26" s="65" t="s">
+      <c r="Q26" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R26" s="35"/>
@@ -4206,11 +4240,11 @@
       <c r="D27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="39">
-        <v>22</v>
-      </c>
-      <c r="F27" s="80"/>
-      <c r="G27" s="103"/>
+      <c r="E27" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="95"/>
       <c r="H27" s="44"/>
       <c r="I27" s="43">
         <v>57</v>
@@ -4234,13 +4268,13 @@
       <c r="P27" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="65" t="s">
+      <c r="Q27" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="84">
+      <c r="B28" s="76">
         <v>20</v>
       </c>
       <c r="C28" s="39" t="s">
@@ -4249,11 +4283,11 @@
       <c r="D28" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="39">
-        <v>22</v>
-      </c>
-      <c r="F28" s="80"/>
-      <c r="G28" s="103"/>
+      <c r="E28" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F28" s="72"/>
+      <c r="G28" s="95"/>
       <c r="H28" s="44"/>
       <c r="I28" s="43">
         <v>58</v>
@@ -4271,16 +4305,16 @@
       <c r="N28" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="O28" s="65" t="s">
+      <c r="O28" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P28" s="65" t="s">
+      <c r="P28" s="63" t="s">
         <v>20</v>
       </c>
       <c r="Q28" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R28" s="58" t="s">
+      <c r="R28" s="56" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4294,11 +4328,11 @@
       <c r="D29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="39">
-        <v>22</v>
-      </c>
-      <c r="F29" s="80"/>
-      <c r="G29" s="103"/>
+      <c r="E29" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F29" s="72"/>
+      <c r="G29" s="95"/>
       <c r="H29" s="44"/>
       <c r="I29" s="43">
         <v>59</v>
@@ -4310,22 +4344,22 @@
         <v>319</v>
       </c>
       <c r="L29" s="52"/>
-      <c r="M29" s="95">
+      <c r="M29" s="87">
         <v>45</v>
       </c>
-      <c r="N29" s="88" t="s">
+      <c r="N29" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="O29" s="89" t="s">
+      <c r="O29" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P29" s="89" t="s">
+      <c r="P29" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="R29" s="64"/>
+      <c r="Q29" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="62"/>
     </row>
     <row r="30" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="51">
@@ -4337,41 +4371,41 @@
       <c r="D30" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="39">
-        <v>22</v>
-      </c>
-      <c r="F30" s="80"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="110">
+      <c r="E30" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F30" s="72"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="43">
         <v>60</v>
       </c>
-      <c r="J30" s="108" t="s">
+      <c r="J30" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="K30" s="36" t="s">
+      <c r="K30" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="L30" s="85"/>
-      <c r="M30" s="97">
+      <c r="L30" s="77"/>
+      <c r="M30" s="89">
         <v>45</v>
       </c>
-      <c r="N30" s="91" t="s">
+      <c r="N30" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="O30" s="92" t="s">
+      <c r="O30" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P30" s="92" t="s">
+      <c r="P30" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R30" s="98"/>
+      <c r="Q30" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="90"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="84">
+      <c r="B31" s="76">
         <v>23</v>
       </c>
       <c r="C31" s="39" t="s">
@@ -4380,32 +4414,42 @@
       <c r="D31" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="39">
-        <v>22</v>
-      </c>
-      <c r="F31" s="80"/>
-      <c r="G31" s="81"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="60">
+      <c r="E31" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F31" s="72"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="43">
+        <v>61</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="K31" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="L31" s="93"/>
+      <c r="M31" s="58">
         <v>48</v>
       </c>
       <c r="N31" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="O31" s="67" t="s">
+      <c r="O31" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P31" s="67" t="s">
+      <c r="P31" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q31" s="67" t="s">
+      <c r="Q31" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R31" s="105" t="s">
+      <c r="R31" s="97" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="51">
         <v>24</v>
       </c>
@@ -4415,28 +4459,38 @@
       <c r="D32" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="39">
-        <v>22</v>
-      </c>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
-      <c r="L32" s="44"/>
+      <c r="E32" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F32" s="72"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="101">
+        <v>62</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="K32" s="68" t="s">
+        <v>331</v>
+      </c>
+      <c r="L32" s="52"/>
       <c r="M32" s="34">
         <v>47</v>
       </c>
       <c r="N32" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="65" t="s">
+      <c r="O32" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P32" s="65" t="s">
+      <c r="P32" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="65" t="s">
+      <c r="Q32" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R32" s="58" t="s">
+      <c r="R32" s="56" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4450,11 +4504,11 @@
       <c r="D33" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="39">
-        <v>22</v>
-      </c>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
+      <c r="E33" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
       <c r="L33" s="44"/>
       <c r="M33" s="34">
         <v>41</v>
@@ -4462,19 +4516,19 @@
       <c r="N33" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="O33" s="65" t="s">
+      <c r="O33" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P33" s="65" t="s">
+      <c r="P33" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="65" t="s">
+      <c r="Q33" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R33" s="35"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="84">
+      <c r="B34" s="76">
         <v>26</v>
       </c>
       <c r="C34" s="39" t="s">
@@ -4483,11 +4537,11 @@
       <c r="D34" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="39">
-        <v>22</v>
-      </c>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
+      <c r="E34" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F34" s="72"/>
+      <c r="G34" s="73"/>
       <c r="L34" s="44"/>
       <c r="M34" s="34">
         <v>42</v>
@@ -4495,13 +4549,13 @@
       <c r="N34" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="O34" s="65" t="s">
+      <c r="O34" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P34" s="65" t="s">
+      <c r="P34" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q34" s="65" t="s">
+      <c r="Q34" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R34" s="35"/>
@@ -4516,11 +4570,11 @@
       <c r="D35" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="39">
-        <v>22</v>
-      </c>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81"/>
+      <c r="E35" s="122" t="s">
+        <v>341</v>
+      </c>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
       <c r="L35" s="44"/>
       <c r="M35" s="34">
         <v>43</v>
@@ -4531,10 +4585,10 @@
       <c r="O35" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="65" t="s">
+      <c r="P35" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q35" s="65" t="s">
+      <c r="Q35" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R35" s="35"/>
@@ -4549,11 +4603,11 @@
       <c r="D36" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="39">
-        <v>22</v>
-      </c>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81"/>
+      <c r="E36" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F36" s="72"/>
+      <c r="G36" s="73"/>
       <c r="L36" s="44"/>
       <c r="M36" s="34">
         <v>2</v>
@@ -4561,19 +4615,19 @@
       <c r="N36" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="O36" s="65" t="s">
+      <c r="O36" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="P36" s="65" t="s">
+      <c r="P36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q36" s="65" t="s">
+      <c r="Q36" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R36" s="35"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="84">
+      <c r="B37" s="76">
         <v>29</v>
       </c>
       <c r="C37" s="39" t="s">
@@ -4582,11 +4636,11 @@
       <c r="D37" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="39">
-        <v>22</v>
-      </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
+      <c r="E37" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
       <c r="L37" s="44"/>
       <c r="M37" s="34">
         <v>44</v>
@@ -4594,13 +4648,13 @@
       <c r="N37" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="O37" s="65" t="s">
+      <c r="O37" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="P37" s="65" t="s">
+      <c r="P37" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q37" s="65" t="s">
+      <c r="Q37" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R37" s="35"/>
@@ -4615,11 +4669,11 @@
       <c r="D38" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="39">
-        <v>22</v>
-      </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="81"/>
+      <c r="E38" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
       <c r="L38" s="44"/>
       <c r="M38" s="34">
         <v>12</v>
@@ -4627,13 +4681,13 @@
       <c r="N38" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="O38" s="65" t="s">
+      <c r="O38" s="63" t="s">
         <v>92</v>
       </c>
       <c r="P38" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="65" t="s">
+      <c r="Q38" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R38" s="35"/>
@@ -4648,11 +4702,11 @@
       <c r="D39" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="39">
-        <v>22</v>
-      </c>
-      <c r="F39" s="80"/>
-      <c r="G39" s="81"/>
+      <c r="E39" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
       <c r="L39" s="44"/>
       <c r="M39" s="34">
         <v>36</v>
@@ -4660,21 +4714,21 @@
       <c r="N39" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="O39" s="65" t="s">
+      <c r="O39" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P39" s="65" t="s">
+      <c r="P39" s="63" t="s">
         <v>20</v>
       </c>
       <c r="Q39" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R39" s="58" t="s">
+      <c r="R39" s="56" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="84">
+      <c r="B40" s="76">
         <v>32</v>
       </c>
       <c r="C40" s="39" t="s">
@@ -4686,25 +4740,25 @@
       <c r="E40" s="39">
         <v>7</v>
       </c>
-      <c r="F40" s="80"/>
-      <c r="G40" s="81"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="73"/>
       <c r="L40" s="44"/>
-      <c r="M40" s="95">
+      <c r="M40" s="87">
         <v>45</v>
       </c>
-      <c r="N40" s="88" t="s">
+      <c r="N40" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="O40" s="89" t="s">
+      <c r="O40" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P40" s="89" t="s">
+      <c r="P40" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="R40" s="64"/>
+      <c r="Q40" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="62"/>
     </row>
     <row r="41" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="51">
@@ -4719,25 +4773,25 @@
       <c r="E41" s="39">
         <v>7</v>
       </c>
-      <c r="F41" s="80"/>
-      <c r="G41" s="81"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="73"/>
       <c r="L41" s="45"/>
-      <c r="M41" s="97">
+      <c r="M41" s="89">
         <v>45</v>
       </c>
-      <c r="N41" s="91" t="s">
+      <c r="N41" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="O41" s="92" t="s">
+      <c r="O41" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P41" s="92" t="s">
+      <c r="P41" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q41" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R41" s="98"/>
+      <c r="Q41" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" s="90"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42" s="51">
@@ -4752,30 +4806,30 @@
       <c r="E42" s="39">
         <v>7</v>
       </c>
-      <c r="F42" s="80"/>
-      <c r="G42" s="81"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="60">
+      <c r="F42" s="72"/>
+      <c r="G42" s="73"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="58">
         <v>49</v>
       </c>
       <c r="N42" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="O42" s="67" t="s">
+      <c r="O42" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P42" s="67" t="s">
+      <c r="P42" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q42" s="67" t="s">
+      <c r="Q42" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R42" s="105" t="s">
+      <c r="R42" s="97" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="84">
+      <c r="B43" s="76">
         <v>35</v>
       </c>
       <c r="C43" s="39" t="s">
@@ -4787,8 +4841,8 @@
       <c r="E43" s="39">
         <v>7</v>
       </c>
-      <c r="F43" s="80"/>
-      <c r="G43" s="81"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="73"/>
       <c r="L43" s="44"/>
       <c r="M43" s="34">
         <v>50</v>
@@ -4796,16 +4850,16 @@
       <c r="N43" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="O43" s="65" t="s">
+      <c r="O43" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P43" s="65" t="s">
+      <c r="P43" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q43" s="65" t="s">
+      <c r="Q43" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R43" s="58" t="s">
+      <c r="R43" s="56" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4822,8 +4876,8 @@
       <c r="E44" s="39">
         <v>7</v>
       </c>
-      <c r="F44" s="80"/>
-      <c r="G44" s="81"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
       <c r="L44" s="44"/>
       <c r="M44" s="34">
         <v>41</v>
@@ -4831,13 +4885,13 @@
       <c r="N44" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="O44" s="65" t="s">
+      <c r="O44" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P44" s="65" t="s">
+      <c r="P44" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="65" t="s">
+      <c r="Q44" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R44" s="35"/>
@@ -4855,8 +4909,8 @@
       <c r="E45" s="39">
         <v>7</v>
       </c>
-      <c r="F45" s="80"/>
-      <c r="G45" s="81"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="73"/>
       <c r="L45" s="44"/>
       <c r="M45" s="34">
         <v>42</v>
@@ -4864,13 +4918,13 @@
       <c r="N45" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="O45" s="65" t="s">
+      <c r="O45" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P45" s="65" t="s">
+      <c r="P45" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q45" s="65" t="s">
+      <c r="Q45" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R45" s="35"/>
@@ -4879,17 +4933,17 @@
       <c r="B46" s="47">
         <v>38</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="55">
         <v>7</v>
       </c>
-      <c r="F46" s="82"/>
-      <c r="G46" s="83"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="75"/>
       <c r="L46" s="44"/>
       <c r="M46" s="34">
         <v>43</v>
@@ -4900,10 +4954,10 @@
       <c r="O46" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P46" s="65" t="s">
+      <c r="P46" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q46" s="65" t="s">
+      <c r="Q46" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R46" s="35"/>
@@ -4916,13 +4970,13 @@
       <c r="N47" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="O47" s="65" t="s">
+      <c r="O47" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="P47" s="65" t="s">
+      <c r="P47" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q47" s="65" t="s">
+      <c r="Q47" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R47" s="35"/>
@@ -4935,13 +4989,13 @@
       <c r="N48" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="O48" s="65" t="s">
+      <c r="O48" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="P48" s="65" t="s">
+      <c r="P48" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="65" t="s">
+      <c r="Q48" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R48" s="35"/>
@@ -4954,13 +5008,13 @@
       <c r="N49" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="O49" s="65" t="s">
+      <c r="O49" s="63" t="s">
         <v>92</v>
       </c>
       <c r="P49" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Q49" s="65" t="s">
+      <c r="Q49" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R49" s="35"/>
@@ -4973,75 +5027,75 @@
       <c r="N50" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="O50" s="65" t="s">
+      <c r="O50" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P50" s="65" t="s">
+      <c r="P50" s="63" t="s">
         <v>20</v>
       </c>
       <c r="Q50" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R50" s="58" t="s">
+      <c r="R50" s="56" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L51" s="44"/>
-      <c r="M51" s="95">
+      <c r="M51" s="87">
         <v>45</v>
       </c>
-      <c r="N51" s="88" t="s">
+      <c r="N51" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="O51" s="89" t="s">
+      <c r="O51" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P51" s="89" t="s">
+      <c r="P51" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="R51" s="64"/>
+      <c r="Q51" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="62"/>
     </row>
     <row r="52" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L52" s="45"/>
-      <c r="M52" s="97">
+      <c r="M52" s="89">
         <v>45</v>
       </c>
-      <c r="N52" s="91" t="s">
+      <c r="N52" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="O52" s="92" t="s">
+      <c r="O52" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P52" s="92" t="s">
+      <c r="P52" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q52" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R52" s="98"/>
+      <c r="Q52" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="90"/>
     </row>
     <row r="53" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L53" s="96"/>
-      <c r="M53" s="60">
+      <c r="L53" s="88"/>
+      <c r="M53" s="58">
         <v>51</v>
       </c>
       <c r="N53" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="O53" s="67" t="s">
+      <c r="O53" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P53" s="67" t="s">
+      <c r="P53" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q53" s="67" t="s">
+      <c r="Q53" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R53" s="105" t="s">
+      <c r="R53" s="97" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5053,16 +5107,16 @@
       <c r="N54" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="O54" s="65" t="s">
+      <c r="O54" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P54" s="65" t="s">
+      <c r="P54" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q54" s="65" t="s">
+      <c r="Q54" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R54" s="58" t="s">
+      <c r="R54" s="56" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5074,13 +5128,13 @@
       <c r="N55" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="O55" s="65" t="s">
+      <c r="O55" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P55" s="65" t="s">
+      <c r="P55" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q55" s="65" t="s">
+      <c r="Q55" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R55" s="35"/>
@@ -5093,13 +5147,13 @@
       <c r="N56" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="O56" s="65" t="s">
+      <c r="O56" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P56" s="65" t="s">
+      <c r="P56" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q56" s="65" t="s">
+      <c r="Q56" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R56" s="35"/>
@@ -5115,10 +5169,10 @@
       <c r="O57" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P57" s="65" t="s">
+      <c r="P57" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q57" s="65" t="s">
+      <c r="Q57" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R57" s="35"/>
@@ -5131,13 +5185,13 @@
       <c r="N58" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="O58" s="65" t="s">
+      <c r="O58" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="P58" s="65" t="s">
+      <c r="P58" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q58" s="65" t="s">
+      <c r="Q58" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R58" s="35"/>
@@ -5150,13 +5204,13 @@
       <c r="N59" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="O59" s="65" t="s">
+      <c r="O59" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="P59" s="65" t="s">
+      <c r="P59" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q59" s="65" t="s">
+      <c r="Q59" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R59" s="35"/>
@@ -5169,13 +5223,13 @@
       <c r="N60" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="O60" s="65" t="s">
+      <c r="O60" s="63" t="s">
         <v>92</v>
       </c>
       <c r="P60" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Q60" s="65" t="s">
+      <c r="Q60" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R60" s="35"/>
@@ -5188,75 +5242,75 @@
       <c r="N61" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="O61" s="65" t="s">
+      <c r="O61" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P61" s="65" t="s">
+      <c r="P61" s="63" t="s">
         <v>20</v>
       </c>
       <c r="Q61" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R61" s="58" t="s">
+      <c r="R61" s="56" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L62" s="44"/>
-      <c r="M62" s="95">
+      <c r="M62" s="87">
         <v>45</v>
       </c>
-      <c r="N62" s="88" t="s">
+      <c r="N62" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="O62" s="89" t="s">
+      <c r="O62" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P62" s="89" t="s">
+      <c r="P62" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q62" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="R62" s="64"/>
+      <c r="Q62" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="62"/>
     </row>
     <row r="63" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L63" s="45"/>
-      <c r="M63" s="97">
+      <c r="M63" s="89">
         <v>45</v>
       </c>
-      <c r="N63" s="91" t="s">
+      <c r="N63" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="O63" s="92" t="s">
+      <c r="O63" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P63" s="92" t="s">
+      <c r="P63" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q63" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R63" s="98"/>
+      <c r="Q63" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="90"/>
     </row>
     <row r="64" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L64" s="96"/>
-      <c r="M64" s="60">
+      <c r="L64" s="88"/>
+      <c r="M64" s="58">
         <v>53</v>
       </c>
       <c r="N64" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="O64" s="67" t="s">
+      <c r="O64" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P64" s="67" t="s">
+      <c r="P64" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q64" s="67" t="s">
+      <c r="Q64" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R64" s="105" t="s">
+      <c r="R64" s="97" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5268,16 +5322,16 @@
       <c r="N65" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="O65" s="65" t="s">
+      <c r="O65" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P65" s="65" t="s">
+      <c r="P65" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q65" s="65" t="s">
+      <c r="Q65" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R65" s="58" t="s">
+      <c r="R65" s="56" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5289,13 +5343,13 @@
       <c r="N66" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="O66" s="65" t="s">
+      <c r="O66" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P66" s="65" t="s">
+      <c r="P66" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q66" s="65" t="s">
+      <c r="Q66" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R66" s="35"/>
@@ -5308,13 +5362,13 @@
       <c r="N67" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="O67" s="65" t="s">
+      <c r="O67" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P67" s="65" t="s">
+      <c r="P67" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q67" s="65" t="s">
+      <c r="Q67" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R67" s="35"/>
@@ -5330,10 +5384,10 @@
       <c r="O68" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P68" s="65" t="s">
+      <c r="P68" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q68" s="65" t="s">
+      <c r="Q68" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R68" s="35"/>
@@ -5346,13 +5400,13 @@
       <c r="N69" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="O69" s="65" t="s">
+      <c r="O69" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="P69" s="65" t="s">
+      <c r="P69" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q69" s="65" t="s">
+      <c r="Q69" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R69" s="35"/>
@@ -5365,13 +5419,13 @@
       <c r="N70" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="O70" s="65" t="s">
+      <c r="O70" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="P70" s="65" t="s">
+      <c r="P70" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q70" s="65" t="s">
+      <c r="Q70" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R70" s="35"/>
@@ -5384,13 +5438,13 @@
       <c r="N71" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="O71" s="65" t="s">
+      <c r="O71" s="63" t="s">
         <v>92</v>
       </c>
       <c r="P71" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Q71" s="65" t="s">
+      <c r="Q71" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R71" s="35"/>
@@ -5403,75 +5457,75 @@
       <c r="N72" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="O72" s="65" t="s">
+      <c r="O72" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P72" s="65" t="s">
+      <c r="P72" s="63" t="s">
         <v>20</v>
       </c>
       <c r="Q72" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R72" s="58" t="s">
+      <c r="R72" s="56" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L73" s="44"/>
-      <c r="M73" s="95">
+      <c r="M73" s="87">
         <v>45</v>
       </c>
-      <c r="N73" s="88" t="s">
+      <c r="N73" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="O73" s="89" t="s">
+      <c r="O73" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P73" s="89" t="s">
+      <c r="P73" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q73" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="R73" s="64"/>
+      <c r="Q73" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R73" s="62"/>
     </row>
     <row r="74" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L74" s="45"/>
-      <c r="M74" s="97">
+      <c r="M74" s="89">
         <v>45</v>
       </c>
-      <c r="N74" s="91" t="s">
+      <c r="N74" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="O74" s="92" t="s">
+      <c r="O74" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P74" s="92" t="s">
+      <c r="P74" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q74" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R74" s="98"/>
+      <c r="Q74" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R74" s="90"/>
     </row>
     <row r="75" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L75" s="96"/>
-      <c r="M75" s="60">
+      <c r="L75" s="88"/>
+      <c r="M75" s="58">
         <v>55</v>
       </c>
       <c r="N75" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="O75" s="67" t="s">
+      <c r="O75" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P75" s="67" t="s">
+      <c r="P75" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q75" s="67" t="s">
+      <c r="Q75" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R75" s="105" t="s">
+      <c r="R75" s="97" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5483,16 +5537,16 @@
       <c r="N76" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="O76" s="65" t="s">
+      <c r="O76" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P76" s="65" t="s">
+      <c r="P76" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q76" s="65" t="s">
+      <c r="Q76" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R76" s="58" t="s">
+      <c r="R76" s="56" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5504,13 +5558,13 @@
       <c r="N77" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="O77" s="65" t="s">
+      <c r="O77" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P77" s="65" t="s">
+      <c r="P77" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q77" s="65" t="s">
+      <c r="Q77" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R77" s="35"/>
@@ -5523,13 +5577,13 @@
       <c r="N78" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="O78" s="65" t="s">
+      <c r="O78" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P78" s="65" t="s">
+      <c r="P78" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q78" s="65" t="s">
+      <c r="Q78" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R78" s="35"/>
@@ -5545,10 +5599,10 @@
       <c r="O79" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P79" s="65" t="s">
+      <c r="P79" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q79" s="65" t="s">
+      <c r="Q79" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R79" s="35"/>
@@ -5561,13 +5615,13 @@
       <c r="N80" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="O80" s="65" t="s">
+      <c r="O80" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="P80" s="65" t="s">
+      <c r="P80" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q80" s="65" t="s">
+      <c r="Q80" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R80" s="35"/>
@@ -5580,13 +5634,13 @@
       <c r="N81" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="O81" s="65" t="s">
+      <c r="O81" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="P81" s="65" t="s">
+      <c r="P81" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q81" s="65" t="s">
+      <c r="Q81" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R81" s="35"/>
@@ -5599,13 +5653,13 @@
       <c r="N82" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="O82" s="65" t="s">
+      <c r="O82" s="63" t="s">
         <v>92</v>
       </c>
       <c r="P82" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Q82" s="65" t="s">
+      <c r="Q82" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R82" s="35"/>
@@ -5618,75 +5672,75 @@
       <c r="N83" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="O83" s="65" t="s">
+      <c r="O83" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P83" s="65" t="s">
+      <c r="P83" s="63" t="s">
         <v>20</v>
       </c>
       <c r="Q83" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R83" s="58" t="s">
+      <c r="R83" s="56" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L84" s="44"/>
-      <c r="M84" s="34">
+      <c r="M84" s="87">
         <v>45</v>
       </c>
-      <c r="N84" s="88" t="s">
+      <c r="N84" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="O84" s="89" t="s">
+      <c r="O84" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P84" s="89" t="s">
+      <c r="P84" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q84" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="R84" s="64"/>
+      <c r="Q84" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R84" s="62"/>
     </row>
     <row r="85" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L85" s="45"/>
-      <c r="M85" s="97">
+      <c r="M85" s="89">
         <v>45</v>
       </c>
-      <c r="N85" s="91" t="s">
+      <c r="N85" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="O85" s="92" t="s">
+      <c r="O85" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P85" s="92" t="s">
+      <c r="P85" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q85" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R85" s="98"/>
+      <c r="Q85" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R85" s="90"/>
     </row>
     <row r="86" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L86" s="96"/>
-      <c r="M86" s="60">
+      <c r="L86" s="88"/>
+      <c r="M86" s="58">
         <v>39</v>
       </c>
       <c r="N86" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="O86" s="67" t="s">
+      <c r="O86" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P86" s="67" t="s">
+      <c r="P86" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q86" s="67" t="s">
+      <c r="Q86" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R86" s="94"/>
+      <c r="R86" s="86"/>
     </row>
     <row r="87" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L87" s="44"/>
@@ -5696,13 +5750,13 @@
       <c r="N87" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O87" s="65" t="s">
+      <c r="O87" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="P87" s="65" t="s">
+      <c r="P87" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q87" s="65" t="s">
+      <c r="Q87" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R87" s="35"/>
@@ -5715,54 +5769,54 @@
       <c r="N88" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O88" s="65" t="s">
+      <c r="O88" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="P88" s="65" t="s">
+      <c r="P88" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q88" s="65" t="s">
+      <c r="Q88" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R88" s="35"/>
     </row>
     <row r="89" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L89" s="44"/>
-      <c r="M89" s="34">
-        <v>25</v>
+      <c r="M89" s="102">
+        <v>61</v>
       </c>
       <c r="N89" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O89" s="65" t="s">
+      <c r="O89" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="P89" s="65" t="s">
+      <c r="P89" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q89" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="R89" s="35"/>
+      <c r="Q89" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R89" s="38"/>
     </row>
     <row r="90" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L90" s="44"/>
-      <c r="M90" s="34">
-        <v>26</v>
+      <c r="M90" s="102">
+        <v>62</v>
       </c>
       <c r="N90" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O90" s="65" t="s">
+      <c r="O90" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="P90" s="65" t="s">
+      <c r="P90" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q90" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="R90" s="35"/>
+      <c r="Q90" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R90" s="38"/>
     </row>
     <row r="91" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L91" s="44"/>
@@ -5772,13 +5826,13 @@
       <c r="N91" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O91" s="65" t="s">
+      <c r="O91" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="P91" s="65" t="s">
+      <c r="P91" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="Q91" s="65" t="s">
+      <c r="Q91" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R91" s="35"/>
@@ -5791,13 +5845,13 @@
       <c r="N92" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O92" s="65" t="s">
+      <c r="O92" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="P92" s="65" t="s">
+      <c r="P92" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="Q92" s="65" t="s">
+      <c r="Q92" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R92" s="35"/>
@@ -5810,13 +5864,13 @@
       <c r="N93" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O93" s="65" t="s">
+      <c r="O93" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="P93" s="65" t="s">
+      <c r="P93" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="Q93" s="65" t="s">
+      <c r="Q93" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R93" s="35"/>
@@ -5829,13 +5883,13 @@
       <c r="N94" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O94" s="65" t="s">
+      <c r="O94" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="P94" s="65" t="s">
+      <c r="P94" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="Q94" s="65" t="s">
+      <c r="Q94" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R94" s="35"/>
@@ -5848,13 +5902,13 @@
       <c r="N95" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O95" s="65" t="s">
+      <c r="O95" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="P95" s="65" t="s">
+      <c r="P95" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="Q95" s="65" t="s">
+      <c r="Q95" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R95" s="35"/>
@@ -5867,13 +5921,13 @@
       <c r="N96" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O96" s="65" t="s">
+      <c r="O96" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="P96" s="65" t="s">
+      <c r="P96" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q96" s="65" t="s">
+      <c r="Q96" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R96" s="35"/>
@@ -5886,13 +5940,13 @@
       <c r="N97" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O97" s="65" t="s">
+      <c r="O97" s="63" t="s">
         <v>291</v>
       </c>
-      <c r="P97" s="65" t="s">
+      <c r="P97" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="Q97" s="65" t="s">
+      <c r="Q97" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R97" s="35"/>
@@ -5905,13 +5959,13 @@
       <c r="N98" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O98" s="65" t="s">
+      <c r="O98" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="P98" s="65" t="s">
+      <c r="P98" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="Q98" s="65" t="s">
+      <c r="Q98" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R98" s="35"/>
@@ -5924,13 +5978,13 @@
       <c r="N99" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O99" s="65" t="s">
+      <c r="O99" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="P99" s="65" t="s">
+      <c r="P99" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="Q99" s="65" t="s">
+      <c r="Q99" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R99" s="35"/>
@@ -5940,38 +5994,38 @@
       <c r="M100" s="33">
         <v>44</v>
       </c>
-      <c r="N100" s="57" t="s">
+      <c r="N100" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="O100" s="68" t="s">
+      <c r="O100" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="P100" s="68" t="s">
+      <c r="P100" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="Q100" s="68" t="s">
+      <c r="Q100" s="66" t="s">
         <v>21</v>
       </c>
       <c r="R100" s="36"/>
     </row>
     <row r="101" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L101" s="96"/>
-      <c r="M101" s="60">
+      <c r="L101" s="88"/>
+      <c r="M101" s="58">
         <v>46</v>
       </c>
       <c r="N101" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="O101" s="67" t="s">
+      <c r="O101" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P101" s="67" t="s">
+      <c r="P101" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q101" s="67" t="s">
+      <c r="Q101" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R101" s="94"/>
+      <c r="R101" s="86"/>
     </row>
     <row r="102" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L102" s="44"/>
@@ -5981,13 +6035,13 @@
       <c r="N102" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="O102" s="65" t="s">
+      <c r="O102" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="P102" s="65" t="s">
+      <c r="P102" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="Q102" s="65" t="s">
+      <c r="Q102" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R102" s="35"/>
@@ -6000,13 +6054,13 @@
       <c r="N103" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="O103" s="65" t="s">
+      <c r="O103" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="P103" s="65" t="s">
+      <c r="P103" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="Q103" s="65" t="s">
+      <c r="Q103" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R103" s="35"/>
@@ -6019,13 +6073,13 @@
       <c r="N104" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="O104" s="65" t="s">
+      <c r="O104" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="P104" s="65" t="s">
+      <c r="P104" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="Q104" s="65" t="s">
+      <c r="Q104" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R104" s="35"/>
@@ -6038,13 +6092,13 @@
       <c r="N105" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="O105" s="65" t="s">
+      <c r="O105" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="P105" s="65" t="s">
+      <c r="P105" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="Q105" s="65" t="s">
+      <c r="Q105" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R105" s="35"/>
@@ -6057,35 +6111,35 @@
       <c r="N106" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="O106" s="68" t="s">
+      <c r="O106" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="P106" s="68" t="s">
+      <c r="P106" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="Q106" s="68" t="s">
+      <c r="Q106" s="66" t="s">
         <v>21</v>
       </c>
       <c r="R106" s="36"/>
     </row>
     <row r="107" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L107" s="96"/>
-      <c r="M107" s="60">
+      <c r="L107" s="88"/>
+      <c r="M107" s="58">
         <v>48</v>
       </c>
       <c r="N107" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="O107" s="67" t="s">
+      <c r="O107" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P107" s="67" t="s">
+      <c r="P107" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q107" s="67" t="s">
+      <c r="Q107" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R107" s="94"/>
+      <c r="R107" s="86"/>
     </row>
     <row r="108" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L108" s="44"/>
@@ -6095,13 +6149,13 @@
       <c r="N108" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="O108" s="65" t="s">
+      <c r="O108" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="P108" s="65" t="s">
+      <c r="P108" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="Q108" s="65" t="s">
+      <c r="Q108" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R108" s="35"/>
@@ -6114,13 +6168,13 @@
       <c r="N109" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="O109" s="65" t="s">
+      <c r="O109" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="P109" s="65" t="s">
+      <c r="P109" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="Q109" s="65" t="s">
+      <c r="Q109" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R109" s="35"/>
@@ -6133,13 +6187,13 @@
       <c r="N110" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="O110" s="65" t="s">
+      <c r="O110" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="P110" s="65" t="s">
+      <c r="P110" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="Q110" s="65" t="s">
+      <c r="Q110" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R110" s="35"/>
@@ -6152,92 +6206,92 @@
       <c r="N111" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="O111" s="65" t="s">
+      <c r="O111" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="P111" s="65" t="s">
+      <c r="P111" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="Q111" s="65" t="s">
+      <c r="Q111" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R111" s="35"/>
     </row>
     <row r="112" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L112" s="45"/>
-      <c r="M112" s="97">
+      <c r="M112" s="89">
         <v>44</v>
       </c>
-      <c r="N112" s="91" t="s">
+      <c r="N112" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="O112" s="92" t="s">
+      <c r="O112" s="84" t="s">
         <v>301</v>
       </c>
-      <c r="P112" s="92" t="s">
+      <c r="P112" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="Q112" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R112" s="98"/>
+      <c r="Q112" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R112" s="90"/>
     </row>
     <row r="113" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L113" s="96"/>
-      <c r="M113" s="60">
+      <c r="L113" s="88"/>
+      <c r="M113" s="58">
         <v>49</v>
       </c>
-      <c r="N113" s="67" t="s">
+      <c r="N113" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="O113" s="67" t="s">
+      <c r="O113" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P113" s="67" t="s">
+      <c r="P113" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q113" s="67" t="s">
+      <c r="Q113" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R113" s="94"/>
+      <c r="R113" s="86"/>
     </row>
     <row r="114" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L114" s="45"/>
-      <c r="M114" s="97">
+      <c r="M114" s="89">
         <v>13</v>
       </c>
-      <c r="N114" s="92" t="s">
+      <c r="N114" s="84" t="s">
         <v>309</v>
       </c>
-      <c r="O114" s="92" t="s">
+      <c r="O114" s="84" t="s">
         <v>302</v>
       </c>
-      <c r="P114" s="107" t="s">
+      <c r="P114" s="99" t="s">
         <v>303</v>
       </c>
-      <c r="Q114" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R114" s="98"/>
+      <c r="Q114" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R114" s="90"/>
     </row>
     <row r="115" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L115" s="96"/>
-      <c r="M115" s="60">
+      <c r="L115" s="88"/>
+      <c r="M115" s="58">
         <v>41</v>
       </c>
       <c r="N115" s="53" t="s">
         <v>312</v>
       </c>
-      <c r="O115" s="67" t="s">
+      <c r="O115" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="P115" s="67" t="s">
+      <c r="P115" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q115" s="67" t="s">
+      <c r="Q115" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R115" s="94" t="s">
+      <c r="R115" s="86" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6249,13 +6303,13 @@
       <c r="N116" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="O116" s="65" t="s">
+      <c r="O116" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="P116" s="65" t="s">
+      <c r="P116" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q116" s="65" t="s">
+      <c r="Q116" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R116" s="35"/>
@@ -6268,13 +6322,13 @@
       <c r="N117" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="O117" s="65" t="s">
+      <c r="O117" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="P117" s="65" t="s">
+      <c r="P117" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q117" s="65" t="s">
+      <c r="Q117" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R117" s="35" t="s">
@@ -6289,13 +6343,13 @@
       <c r="N118" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="O118" s="65" t="s">
+      <c r="O118" s="63" t="s">
         <v>305</v>
       </c>
-      <c r="P118" s="65" t="s">
+      <c r="P118" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q118" s="65" t="s">
+      <c r="Q118" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R118" s="35" t="s">
@@ -6310,13 +6364,13 @@
       <c r="N119" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="O119" s="65" t="s">
+      <c r="O119" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P119" s="65" t="s">
+      <c r="P119" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q119" s="65" t="s">
+      <c r="Q119" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R119" s="35"/>
@@ -6329,13 +6383,13 @@
       <c r="N120" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="O120" s="65" t="s">
+      <c r="O120" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P120" s="65" t="s">
+      <c r="P120" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q120" s="65" t="s">
+      <c r="Q120" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R120" s="35"/>
@@ -6351,48 +6405,48 @@
       <c r="O121" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P121" s="65" t="s">
+      <c r="P121" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q121" s="65" t="s">
+      <c r="Q121" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R121" s="35"/>
     </row>
     <row r="122" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L122" s="44"/>
-      <c r="M122" s="95">
+      <c r="M122" s="87">
         <v>45</v>
       </c>
-      <c r="N122" s="88" t="s">
+      <c r="N122" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="O122" s="89" t="s">
+      <c r="O122" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P122" s="89" t="s">
+      <c r="P122" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q122" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="R122" s="64"/>
+      <c r="Q122" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R122" s="62"/>
     </row>
     <row r="123" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L123" s="45"/>
       <c r="M123" s="33">
         <v>58</v>
       </c>
-      <c r="N123" s="57" t="s">
+      <c r="N123" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="O123" s="68" t="s">
+      <c r="O123" s="66" t="s">
         <v>306</v>
       </c>
-      <c r="P123" s="68" t="s">
+      <c r="P123" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="Q123" s="68" t="s">
+      <c r="Q123" s="66" t="s">
         <v>18</v>
       </c>
       <c r="R123" s="36" t="s">
@@ -6400,23 +6454,23 @@
       </c>
     </row>
     <row r="124" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L124" s="96"/>
-      <c r="M124" s="60">
+      <c r="L124" s="88"/>
+      <c r="M124" s="58">
         <v>41</v>
       </c>
       <c r="N124" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="O124" s="67" t="s">
+      <c r="O124" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="P124" s="67" t="s">
+      <c r="P124" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q124" s="67" t="s">
+      <c r="Q124" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R124" s="94" t="s">
+      <c r="R124" s="86" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6428,13 +6482,13 @@
       <c r="N125" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="O125" s="65" t="s">
+      <c r="O125" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="P125" s="65" t="s">
+      <c r="P125" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q125" s="65" t="s">
+      <c r="Q125" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R125" s="35"/>
@@ -6447,13 +6501,13 @@
       <c r="N126" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="O126" s="65" t="s">
+      <c r="O126" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="P126" s="65" t="s">
+      <c r="P126" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q126" s="65" t="s">
+      <c r="Q126" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R126" s="35" t="s">
@@ -6468,13 +6522,13 @@
       <c r="N127" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="O127" s="65" t="s">
+      <c r="O127" s="63" t="s">
         <v>305</v>
       </c>
-      <c r="P127" s="65" t="s">
+      <c r="P127" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q127" s="65" t="s">
+      <c r="Q127" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R127" s="35" t="s">
@@ -6489,13 +6543,13 @@
       <c r="N128" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="O128" s="65" t="s">
+      <c r="O128" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P128" s="65" t="s">
+      <c r="P128" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q128" s="65" t="s">
+      <c r="Q128" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R128" s="35"/>
@@ -6508,13 +6562,13 @@
       <c r="N129" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="O129" s="65" t="s">
+      <c r="O129" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P129" s="65" t="s">
+      <c r="P129" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q129" s="65" t="s">
+      <c r="Q129" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R129" s="35"/>
@@ -6530,48 +6584,48 @@
       <c r="O130" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P130" s="65" t="s">
+      <c r="P130" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q130" s="65" t="s">
+      <c r="Q130" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R130" s="35"/>
     </row>
     <row r="131" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L131" s="44"/>
-      <c r="M131" s="95">
+      <c r="M131" s="87">
         <v>45</v>
       </c>
-      <c r="N131" s="88" t="s">
+      <c r="N131" s="80" t="s">
         <v>314</v>
       </c>
-      <c r="O131" s="89" t="s">
+      <c r="O131" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P131" s="89" t="s">
+      <c r="P131" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q131" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="R131" s="64"/>
+      <c r="Q131" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R131" s="62"/>
     </row>
     <row r="132" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L132" s="45"/>
       <c r="M132" s="33">
         <v>59</v>
       </c>
-      <c r="N132" s="57" t="s">
+      <c r="N132" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="O132" s="68" t="s">
+      <c r="O132" s="66" t="s">
         <v>306</v>
       </c>
-      <c r="P132" s="68" t="s">
+      <c r="P132" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="Q132" s="68" t="s">
+      <c r="Q132" s="66" t="s">
         <v>18</v>
       </c>
       <c r="R132" s="36" t="s">
@@ -6579,23 +6633,23 @@
       </c>
     </row>
     <row r="133" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L133" s="96"/>
-      <c r="M133" s="60">
+      <c r="L133" s="88"/>
+      <c r="M133" s="58">
         <v>41</v>
       </c>
       <c r="N133" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="O133" s="67" t="s">
+      <c r="O133" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="P133" s="67" t="s">
+      <c r="P133" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q133" s="67" t="s">
+      <c r="Q133" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R133" s="94" t="s">
+      <c r="R133" s="86" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6607,13 +6661,13 @@
       <c r="N134" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="O134" s="65" t="s">
+      <c r="O134" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="P134" s="65" t="s">
+      <c r="P134" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q134" s="65" t="s">
+      <c r="Q134" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R134" s="35"/>
@@ -6626,13 +6680,13 @@
       <c r="N135" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="O135" s="65" t="s">
+      <c r="O135" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="P135" s="65" t="s">
+      <c r="P135" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q135" s="65" t="s">
+      <c r="Q135" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R135" s="35" t="s">
@@ -6647,13 +6701,13 @@
       <c r="N136" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="O136" s="65" t="s">
+      <c r="O136" s="63" t="s">
         <v>305</v>
       </c>
-      <c r="P136" s="65" t="s">
+      <c r="P136" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q136" s="65" t="s">
+      <c r="Q136" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R136" s="35" t="s">
@@ -6668,13 +6722,13 @@
       <c r="N137" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="O137" s="65" t="s">
+      <c r="O137" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P137" s="65" t="s">
+      <c r="P137" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q137" s="65" t="s">
+      <c r="Q137" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R137" s="35"/>
@@ -6687,13 +6741,13 @@
       <c r="N138" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="O138" s="65" t="s">
+      <c r="O138" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P138" s="65" t="s">
+      <c r="P138" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q138" s="65" t="s">
+      <c r="Q138" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R138" s="35"/>
@@ -6709,48 +6763,48 @@
       <c r="O139" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P139" s="65" t="s">
+      <c r="P139" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q139" s="65" t="s">
+      <c r="Q139" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R139" s="35"/>
     </row>
     <row r="140" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L140" s="44"/>
-      <c r="M140" s="95">
+      <c r="M140" s="87">
         <v>45</v>
       </c>
-      <c r="N140" s="88" t="s">
+      <c r="N140" s="80" t="s">
         <v>316</v>
       </c>
-      <c r="O140" s="89" t="s">
+      <c r="O140" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P140" s="89" t="s">
+      <c r="P140" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q140" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="R140" s="64"/>
+      <c r="Q140" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R140" s="62"/>
     </row>
     <row r="141" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L141" s="45"/>
       <c r="M141" s="33">
         <v>60</v>
       </c>
-      <c r="N141" s="57" t="s">
+      <c r="N141" s="55" t="s">
         <v>316</v>
       </c>
-      <c r="O141" s="68" t="s">
+      <c r="O141" s="66" t="s">
         <v>306</v>
       </c>
-      <c r="P141" s="68" t="s">
+      <c r="P141" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="Q141" s="68" t="s">
+      <c r="Q141" s="66" t="s">
         <v>18</v>
       </c>
       <c r="R141" s="36" t="s">
@@ -6816,28 +6870,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="114" t="s">
+      <c r="H2" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="77"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="25" t="s">
         <v>46</v>
       </c>
@@ -6848,13 +6902,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="78"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="46" t="s">
         <v>47</v>
       </c>
@@ -6865,11 +6919,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6881,29 +6935,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="128" t="s">
+      <c r="I7" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="129"/>
-      <c r="K7" s="130"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="121"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="112" t="s">
+      <c r="M7" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6968,31 +7022,31 @@
         <v>100</v>
       </c>
       <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="60">
+      <c r="G9" s="67"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="100">
         <v>31</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="71" t="s">
+      <c r="K9" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="L9" s="76"/>
+      <c r="L9" s="57"/>
       <c r="M9" s="37">
         <v>31</v>
       </c>
       <c r="N9" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="O9" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="P9" s="65" t="s">
+      <c r="P9" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="65" t="s">
+      <c r="Q9" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R9" s="42" t="s">
@@ -7013,34 +7067,34 @@
         <v>50</v>
       </c>
       <c r="F10" s="39"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="34">
+      <c r="G10" s="71"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="43">
         <v>32</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="56" t="s">
         <v>267</v>
       </c>
-      <c r="L10" s="76"/>
+      <c r="L10" s="57"/>
       <c r="M10" s="34">
         <v>32</v>
       </c>
       <c r="N10" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="O10" s="65" t="s">
+      <c r="O10" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P10" s="65" t="s">
+      <c r="P10" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="65" t="s">
+      <c r="Q10" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="104" t="s">
+      <c r="R10" s="96" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7057,32 +7111,32 @@
       <c r="E11" s="39">
         <v>20</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="34">
+      <c r="F11" s="64"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="43">
         <v>33</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="73" t="s">
+      <c r="K11" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="76"/>
+      <c r="L11" s="57"/>
       <c r="M11" s="34">
         <v>33</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="O11" s="65" t="s">
+      <c r="O11" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="65" t="s">
+      <c r="P11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="65" t="s">
+      <c r="Q11" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R11" s="38"/>
@@ -7100,38 +7154,38 @@
       <c r="E12" s="39">
         <v>80</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="34">
+      <c r="F12" s="64"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="43">
         <v>34</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="76"/>
+      <c r="L12" s="57"/>
       <c r="M12" s="34">
         <v>34</v>
       </c>
       <c r="N12" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="O12" s="65" t="s">
+      <c r="O12" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="65" t="s">
+      <c r="P12" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="65" t="s">
+      <c r="Q12" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R12" s="38"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="84">
+      <c r="B13" s="76">
         <v>5</v>
       </c>
       <c r="C13" s="39" t="s">
@@ -7143,19 +7197,19 @@
       <c r="E13" s="39">
         <v>50</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="34">
+      <c r="F13" s="78"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="43">
         <v>35</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="74" t="s">
+      <c r="K13" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="L13" s="44"/>
+      <c r="L13" s="52"/>
       <c r="M13" s="24">
         <v>35</v>
       </c>
@@ -7165,10 +7219,10 @@
       <c r="O13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="65" t="s">
+      <c r="P13" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="65" t="s">
+      <c r="Q13" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R13" s="38"/>
@@ -7186,32 +7240,32 @@
       <c r="E14" s="39">
         <v>100</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="34">
+      <c r="F14" s="72"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="43">
         <v>36</v>
       </c>
       <c r="J14" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="73" t="s">
+      <c r="K14" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="44"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="24">
         <v>11</v>
       </c>
       <c r="N14" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="O14" s="65" t="s">
+      <c r="O14" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="65" t="s">
+      <c r="P14" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q14" s="65" t="s">
+      <c r="Q14" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R14" s="38"/>
@@ -7229,38 +7283,38 @@
       <c r="E15" s="39">
         <v>15</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="34">
+      <c r="F15" s="72"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="43">
         <v>37</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="73" t="s">
+      <c r="K15" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="44"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="24">
         <v>36</v>
       </c>
       <c r="N15" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="O15" s="65" t="s">
+      <c r="O15" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="65" t="s">
+      <c r="P15" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="65" t="s">
+      <c r="Q15" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R15" s="38"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="84">
+      <c r="B16" s="76">
         <v>8</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -7272,37 +7326,37 @@
       <c r="E16" s="39">
         <v>80</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="34">
+      <c r="F16" s="72"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="43">
         <v>38</v>
       </c>
       <c r="J16" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="K16" s="73" t="s">
+      <c r="K16" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="L16" s="44"/>
+      <c r="L16" s="52"/>
       <c r="M16" s="24">
         <v>4</v>
       </c>
       <c r="N16" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="O16" s="65" t="s">
+      <c r="O16" s="63" t="s">
         <v>92</v>
       </c>
       <c r="P16" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="65" t="s">
+      <c r="Q16" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R16" s="38"/>
     </row>
-    <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="51">
         <v>9</v>
       </c>
@@ -7315,35 +7369,35 @@
       <c r="E17" s="39">
         <v>15</v>
       </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="33">
+      <c r="F17" s="72"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="43">
         <v>39</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="K17" s="75" t="s">
+      <c r="K17" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="L17" s="44"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="24">
         <v>26</v>
       </c>
       <c r="N17" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="O17" s="65" t="s">
+      <c r="O17" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="65" t="s">
+      <c r="P17" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="65" t="s">
+      <c r="Q17" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="104" t="s">
+      <c r="R17" s="96" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7357,31 +7411,41 @@
       <c r="D18" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="39">
-        <v>22</v>
-      </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="63">
+      <c r="E18" s="122" t="s">
+        <v>341</v>
+      </c>
+      <c r="F18" s="72"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="43">
+        <v>40</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="L18" s="52"/>
+      <c r="M18" s="61">
         <v>37</v>
       </c>
-      <c r="N18" s="88" t="s">
+      <c r="N18" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O18" s="89" t="s">
+      <c r="O18" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="89" t="s">
+      <c r="P18" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="88" t="s">
+      <c r="Q18" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="R18" s="64"/>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="84">
+      <c r="B19" s="76">
         <v>11</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -7390,32 +7454,42 @@
       <c r="D19" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="39">
-        <v>22</v>
-      </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81" t="s">
+      <c r="E19" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F19" s="72"/>
+      <c r="G19" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="90">
+      <c r="H19" s="44"/>
+      <c r="I19" s="43">
+        <v>41</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="L19" s="77"/>
+      <c r="M19" s="82">
         <v>37</v>
       </c>
-      <c r="N19" s="91" t="s">
+      <c r="N19" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="O19" s="92" t="s">
+      <c r="O19" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P19" s="92" t="s">
+      <c r="P19" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="93"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q19" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="85"/>
+    </row>
+    <row r="20" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="51">
         <v>12</v>
       </c>
@@ -7425,28 +7499,38 @@
       <c r="D20" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="39">
-        <v>22</v>
-      </c>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="60">
+      <c r="E20" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F20" s="72"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="101">
+        <v>42</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="K20" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="L20" s="93"/>
+      <c r="M20" s="58">
         <v>38</v>
       </c>
       <c r="N20" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="O20" s="67" t="s">
+      <c r="O20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="67" t="s">
+      <c r="P20" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="67" t="s">
+      <c r="Q20" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="105" t="s">
+      <c r="R20" s="97" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7460,11 +7544,11 @@
       <c r="D21" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="39">
-        <v>22</v>
-      </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81"/>
+      <c r="E21" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
       <c r="L21" s="44"/>
       <c r="M21" s="34">
         <v>39</v>
@@ -7472,21 +7556,21 @@
       <c r="N21" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O21" s="65" t="s">
+      <c r="O21" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P21" s="65" t="s">
+      <c r="P21" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="65" t="s">
+      <c r="Q21" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="58" t="s">
+      <c r="R21" s="56" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="84">
+      <c r="B22" s="76">
         <v>14</v>
       </c>
       <c r="C22" s="39" t="s">
@@ -7495,11 +7579,11 @@
       <c r="D22" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="39">
-        <v>22</v>
-      </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
+      <c r="E22" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
       <c r="L22" s="44"/>
       <c r="M22" s="34">
         <v>33</v>
@@ -7507,13 +7591,13 @@
       <c r="N22" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O22" s="65" t="s">
+      <c r="O22" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P22" s="65" t="s">
+      <c r="P22" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="65" t="s">
+      <c r="Q22" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R22" s="35"/>
@@ -7528,11 +7612,11 @@
       <c r="D23" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="39">
-        <v>22</v>
-      </c>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
+      <c r="E23" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
       <c r="L23" s="44"/>
       <c r="M23" s="34">
         <v>34</v>
@@ -7540,13 +7624,13 @@
       <c r="N23" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O23" s="65" t="s">
+      <c r="O23" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="65" t="s">
+      <c r="P23" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q23" s="65" t="s">
+      <c r="Q23" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R23" s="35"/>
@@ -7561,11 +7645,11 @@
       <c r="D24" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="39">
-        <v>22</v>
-      </c>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
+      <c r="E24" s="122" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
       <c r="L24" s="44"/>
       <c r="M24" s="24">
         <v>35</v>
@@ -7576,16 +7660,16 @@
       <c r="O24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="65" t="s">
+      <c r="P24" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q24" s="65" t="s">
+      <c r="Q24" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R24" s="35"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="84">
+      <c r="B25" s="76">
         <v>17</v>
       </c>
       <c r="C25" s="39" t="s">
@@ -7594,11 +7678,11 @@
       <c r="D25" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="39">
-        <v>22</v>
-      </c>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
+      <c r="E25" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
       <c r="L25" s="44"/>
       <c r="M25" s="24">
         <v>11</v>
@@ -7606,13 +7690,13 @@
       <c r="N25" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O25" s="65" t="s">
+      <c r="O25" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="P25" s="65" t="s">
+      <c r="P25" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q25" s="65" t="s">
+      <c r="Q25" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R25" s="35"/>
@@ -7627,11 +7711,11 @@
       <c r="D26" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="39">
-        <v>22</v>
-      </c>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
+      <c r="E26" s="122" t="s">
+        <v>341</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
       <c r="L26" s="44"/>
       <c r="M26" s="24">
         <v>36</v>
@@ -7639,13 +7723,13 @@
       <c r="N26" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O26" s="65" t="s">
+      <c r="O26" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="P26" s="65" t="s">
+      <c r="P26" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q26" s="65" t="s">
+      <c r="Q26" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R26" s="35"/>
@@ -7660,11 +7744,11 @@
       <c r="D27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="39">
-        <v>22</v>
-      </c>
-      <c r="F27" s="80"/>
-      <c r="G27" s="81"/>
+      <c r="E27" s="122" t="s">
+        <v>341</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
       <c r="L27" s="44"/>
       <c r="M27" s="34">
         <v>3</v>
@@ -7672,19 +7756,19 @@
       <c r="N27" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O27" s="65" t="s">
+      <c r="O27" s="63" t="s">
         <v>92</v>
       </c>
       <c r="P27" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="65" t="s">
+      <c r="Q27" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="84">
+      <c r="B28" s="76">
         <v>20</v>
       </c>
       <c r="C28" s="39" t="s">
@@ -7693,11 +7777,11 @@
       <c r="D28" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="39">
-        <v>22</v>
-      </c>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
+      <c r="E28" s="122" t="s">
+        <v>342</v>
+      </c>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
       <c r="L28" s="44"/>
       <c r="M28" s="24">
         <v>26</v>
@@ -7705,16 +7789,16 @@
       <c r="N28" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O28" s="65" t="s">
+      <c r="O28" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P28" s="65" t="s">
+      <c r="P28" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="65" t="s">
+      <c r="Q28" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R28" s="58" t="s">
+      <c r="R28" s="56" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7728,28 +7812,28 @@
       <c r="D29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="39">
-        <v>22</v>
-      </c>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81"/>
+      <c r="E29" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
       <c r="L29" s="44"/>
-      <c r="M29" s="63">
+      <c r="M29" s="61">
         <v>37</v>
       </c>
-      <c r="N29" s="88" t="s">
+      <c r="N29" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="O29" s="89" t="s">
+      <c r="O29" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P29" s="89" t="s">
+      <c r="P29" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="88" t="s">
+      <c r="Q29" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="R29" s="64"/>
+      <c r="R29" s="62"/>
     </row>
     <row r="30" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="51">
@@ -7761,31 +7845,31 @@
       <c r="D30" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="39">
-        <v>22</v>
-      </c>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81"/>
+      <c r="E30" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
       <c r="L30" s="45"/>
-      <c r="M30" s="90">
+      <c r="M30" s="82">
         <v>37</v>
       </c>
-      <c r="N30" s="91" t="s">
+      <c r="N30" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="O30" s="92" t="s">
+      <c r="O30" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P30" s="92" t="s">
+      <c r="P30" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R30" s="98"/>
+      <c r="Q30" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="90"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="84">
+      <c r="B31" s="76">
         <v>23</v>
       </c>
       <c r="C31" s="39" t="s">
@@ -7794,28 +7878,28 @@
       <c r="D31" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="39">
-        <v>22</v>
-      </c>
-      <c r="F31" s="80"/>
-      <c r="G31" s="81"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="60">
+      <c r="E31" s="122" t="s">
+        <v>343</v>
+      </c>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="58">
         <v>31</v>
       </c>
       <c r="N31" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="O31" s="67" t="s">
+      <c r="O31" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P31" s="67" t="s">
+      <c r="P31" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q31" s="67" t="s">
+      <c r="Q31" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R31" s="94" t="s">
+      <c r="R31" s="86" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7829,11 +7913,11 @@
       <c r="D32" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="39">
-        <v>22</v>
-      </c>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
+      <c r="E32" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
       <c r="L32" s="44"/>
       <c r="M32" s="34">
         <v>36</v>
@@ -7841,13 +7925,13 @@
       <c r="N32" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O32" s="65" t="s">
+      <c r="O32" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="P32" s="65" t="s">
+      <c r="P32" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q32" s="65" t="s">
+      <c r="Q32" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R32" s="35"/>
@@ -7865,28 +7949,28 @@
       <c r="E33" s="39">
         <v>7</v>
       </c>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
       <c r="L33" s="44"/>
-      <c r="M33" s="34">
-        <v>4</v>
+      <c r="M33" s="102">
+        <v>40</v>
       </c>
       <c r="N33" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O33" s="65" t="s">
+      <c r="O33" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="P33" s="65" t="s">
+      <c r="P33" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q33" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="35"/>
+      <c r="Q33" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="38"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="84">
+      <c r="B34" s="76">
         <v>26</v>
       </c>
       <c r="C34" s="39" t="s">
@@ -7898,25 +7982,25 @@
       <c r="E34" s="39">
         <v>7</v>
       </c>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="73"/>
       <c r="L34" s="44"/>
-      <c r="M34" s="34">
-        <v>4</v>
+      <c r="M34" s="102">
+        <v>41</v>
       </c>
       <c r="N34" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O34" s="65" t="s">
+      <c r="O34" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="P34" s="65" t="s">
+      <c r="P34" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q34" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="R34" s="35"/>
+      <c r="Q34" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="38"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B35" s="51">
@@ -7931,25 +8015,25 @@
       <c r="E35" s="39">
         <v>7</v>
       </c>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
       <c r="L35" s="44"/>
-      <c r="M35" s="34">
-        <v>4</v>
+      <c r="M35" s="102">
+        <v>42</v>
       </c>
       <c r="N35" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O35" s="65" t="s">
+      <c r="O35" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="P35" s="65" t="s">
+      <c r="P35" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q35" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="R35" s="35"/>
+      <c r="Q35" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="38"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="51">
@@ -7964,8 +8048,8 @@
       <c r="E36" s="39">
         <v>7</v>
       </c>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="73"/>
       <c r="L36" s="44"/>
       <c r="M36" s="34">
         <v>36</v>
@@ -7973,19 +8057,19 @@
       <c r="N36" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O36" s="65" t="s">
+      <c r="O36" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="P36" s="65" t="s">
+      <c r="P36" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="Q36" s="65" t="s">
+      <c r="Q36" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R36" s="35"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="84">
+      <c r="B37" s="76">
         <v>29</v>
       </c>
       <c r="C37" s="39" t="s">
@@ -7997,8 +8081,8 @@
       <c r="E37" s="39">
         <v>7</v>
       </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
       <c r="L37" s="44"/>
       <c r="M37" s="34">
         <v>36</v>
@@ -8006,32 +8090,32 @@
       <c r="N37" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O37" s="65" t="s">
+      <c r="O37" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="P37" s="65" t="s">
+      <c r="P37" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="Q37" s="65" t="s">
+      <c r="Q37" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R37" s="35"/>
     </row>
     <row r="38" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="56">
+      <c r="B38" s="54">
         <v>30</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="55">
         <v>7</v>
       </c>
-      <c r="F38" s="82"/>
-      <c r="G38" s="83"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="75"/>
       <c r="L38" s="44"/>
       <c r="M38" s="34">
         <v>4</v>
@@ -8039,13 +8123,13 @@
       <c r="N38" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O38" s="65" t="s">
+      <c r="O38" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="P38" s="65" t="s">
+      <c r="P38" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="Q38" s="65" t="s">
+      <c r="Q38" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R38" s="35"/>
@@ -8058,13 +8142,13 @@
       <c r="N39" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O39" s="65" t="s">
+      <c r="O39" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="P39" s="65" t="s">
+      <c r="P39" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="Q39" s="65" t="s">
+      <c r="Q39" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R39" s="35"/>
@@ -8077,13 +8161,13 @@
       <c r="N40" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O40" s="65" t="s">
+      <c r="O40" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="P40" s="65" t="s">
+      <c r="P40" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="Q40" s="65" t="s">
+      <c r="Q40" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R40" s="35"/>
@@ -8096,13 +8180,13 @@
       <c r="N41" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O41" s="65" t="s">
+      <c r="O41" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="P41" s="65" t="s">
+      <c r="P41" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q41" s="65" t="s">
+      <c r="Q41" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R41" s="35"/>
@@ -8115,13 +8199,13 @@
       <c r="N42" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O42" s="65" t="s">
+      <c r="O42" s="63" t="s">
         <v>291</v>
       </c>
-      <c r="P42" s="65" t="s">
+      <c r="P42" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="Q42" s="65" t="s">
+      <c r="Q42" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R42" s="35"/>
@@ -8134,13 +8218,13 @@
       <c r="N43" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O43" s="65" t="s">
+      <c r="O43" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="P43" s="65" t="s">
+      <c r="P43" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="Q43" s="65" t="s">
+      <c r="Q43" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R43" s="35"/>
@@ -8153,54 +8237,54 @@
       <c r="N44" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O44" s="65" t="s">
+      <c r="O44" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="P44" s="65" t="s">
+      <c r="P44" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="Q44" s="65" t="s">
+      <c r="Q44" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R44" s="35"/>
     </row>
     <row r="45" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L45" s="45"/>
-      <c r="M45" s="97">
+      <c r="M45" s="89">
         <v>36</v>
       </c>
-      <c r="N45" s="91" t="s">
+      <c r="N45" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="O45" s="92" t="s">
+      <c r="O45" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="P45" s="92" t="s">
+      <c r="P45" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="Q45" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="98"/>
+      <c r="Q45" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="90"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L46" s="96"/>
-      <c r="M46" s="60">
+      <c r="L46" s="88"/>
+      <c r="M46" s="58">
         <v>38</v>
       </c>
-      <c r="N46" s="67" t="s">
+      <c r="N46" s="65" t="s">
         <v>321</v>
       </c>
-      <c r="O46" s="67" t="s">
+      <c r="O46" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P46" s="67" t="s">
+      <c r="P46" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q46" s="67" t="s">
+      <c r="Q46" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R46" s="94" t="s">
+      <c r="R46" s="86" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8209,16 +8293,16 @@
       <c r="M47" s="34">
         <v>36</v>
       </c>
-      <c r="N47" s="65" t="s">
+      <c r="N47" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="O47" s="65" t="s">
+      <c r="O47" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="P47" s="65" t="s">
+      <c r="P47" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="Q47" s="65" t="s">
+      <c r="Q47" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R47" s="35"/>
@@ -8228,16 +8312,16 @@
       <c r="M48" s="34">
         <v>36</v>
       </c>
-      <c r="N48" s="65" t="s">
+      <c r="N48" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="O48" s="65" t="s">
+      <c r="O48" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="P48" s="65" t="s">
+      <c r="P48" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="Q48" s="65" t="s">
+      <c r="Q48" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R48" s="35"/>
@@ -8247,16 +8331,16 @@
       <c r="M49" s="34">
         <v>36</v>
       </c>
-      <c r="N49" s="65" t="s">
+      <c r="N49" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="O49" s="65" t="s">
+      <c r="O49" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="P49" s="65" t="s">
+      <c r="P49" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="Q49" s="65" t="s">
+      <c r="Q49" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R49" s="35"/>
@@ -8266,16 +8350,16 @@
       <c r="M50" s="34">
         <v>3</v>
       </c>
-      <c r="N50" s="65" t="s">
+      <c r="N50" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="O50" s="65" t="s">
+      <c r="O50" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="P50" s="65" t="s">
+      <c r="P50" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="Q50" s="65" t="s">
+      <c r="Q50" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R50" s="35"/>
@@ -8285,16 +8369,16 @@
       <c r="M51" s="33">
         <v>36</v>
       </c>
-      <c r="N51" s="68" t="s">
+      <c r="N51" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="O51" s="68" t="s">
+      <c r="O51" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="P51" s="68" t="s">
+      <c r="P51" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="Q51" s="68" t="s">
+      <c r="Q51" s="66" t="s">
         <v>21</v>
       </c>
       <c r="R51" s="36"/>
@@ -8320,8 +8404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R97"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8358,28 +8442,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="114" t="s">
+      <c r="H2" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="77"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="25" t="s">
         <v>46</v>
       </c>
@@ -8390,13 +8474,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="78"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="46" t="s">
         <v>47</v>
       </c>
@@ -8407,11 +8491,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8423,29 +8507,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="128" t="s">
+      <c r="I7" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="129"/>
-      <c r="K7" s="130"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="121"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="112" t="s">
+      <c r="M7" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8510,33 +8594,33 @@
         <v>20</v>
       </c>
       <c r="F9" s="53"/>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="109">
+      <c r="H9" s="91"/>
+      <c r="I9" s="58">
         <v>90</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="L9" s="59"/>
+      <c r="L9" s="57"/>
       <c r="M9" s="37">
         <v>90</v>
       </c>
       <c r="N9" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="O9" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="P9" s="65" t="s">
+      <c r="P9" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="65" t="s">
+      <c r="Q9" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R9" s="42" t="s">
@@ -8557,34 +8641,34 @@
         <v>80</v>
       </c>
       <c r="F10" s="39"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="43">
+      <c r="G10" s="71"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="34">
         <v>91</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="L10" s="59"/>
+      <c r="L10" s="57"/>
       <c r="M10" s="34">
         <v>91</v>
       </c>
       <c r="N10" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="O10" s="65" t="s">
+      <c r="O10" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P10" s="65" t="s">
+      <c r="P10" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="65" t="s">
+      <c r="Q10" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="104" t="s">
+      <c r="R10" s="96" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8601,10 +8685,10 @@
       <c r="E11" s="39">
         <v>25</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="43">
+      <c r="F11" s="64"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="34">
         <v>92</v>
       </c>
       <c r="J11" s="39" t="s">
@@ -8613,20 +8697,20 @@
       <c r="K11" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="59"/>
+      <c r="L11" s="57"/>
       <c r="M11" s="34">
         <v>92</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="O11" s="65" t="s">
+      <c r="O11" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="65" t="s">
+      <c r="P11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="65" t="s">
+      <c r="Q11" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R11" s="38"/>
@@ -8644,10 +8728,10 @@
       <c r="E12" s="39">
         <v>20</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="43">
+      <c r="F12" s="64"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="34">
         <v>93</v>
       </c>
       <c r="J12" s="25" t="s">
@@ -8656,26 +8740,26 @@
       <c r="K12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="59"/>
+      <c r="L12" s="57"/>
       <c r="M12" s="34">
         <v>93</v>
       </c>
       <c r="N12" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="O12" s="65" t="s">
+      <c r="O12" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="65" t="s">
+      <c r="P12" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="65" t="s">
+      <c r="Q12" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R12" s="38"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="84">
+      <c r="B13" s="76">
         <v>5</v>
       </c>
       <c r="C13" s="39" t="s">
@@ -8687,16 +8771,16 @@
       <c r="E13" s="39">
         <v>50</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="43">
+      <c r="F13" s="78"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="34">
         <v>94</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="60" t="s">
         <v>273</v>
       </c>
       <c r="L13" s="52"/>
@@ -8709,10 +8793,10 @@
       <c r="O13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="65" t="s">
+      <c r="P13" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="65" t="s">
+      <c r="Q13" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R13" s="38"/>
@@ -8730,16 +8814,16 @@
       <c r="E14" s="39">
         <v>50</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="43">
+      <c r="F14" s="78"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="34">
         <v>95</v>
       </c>
       <c r="J14" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="56" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="52"/>
@@ -8749,13 +8833,13 @@
       <c r="N14" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="65" t="s">
+      <c r="O14" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="65" t="s">
+      <c r="P14" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q14" s="65" t="s">
+      <c r="Q14" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R14" s="38"/>
@@ -8773,16 +8857,16 @@
       <c r="E15" s="39">
         <v>80</v>
       </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="43">
+      <c r="F15" s="78"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="34">
         <v>96</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="56" t="s">
         <v>41</v>
       </c>
       <c r="L15" s="52"/>
@@ -8792,13 +8876,13 @@
       <c r="N15" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="O15" s="65" t="s">
+      <c r="O15" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="65" t="s">
+      <c r="P15" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="65" t="s">
+      <c r="Q15" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R15" s="38"/>
@@ -8816,16 +8900,16 @@
       <c r="E16" s="39">
         <v>20</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="43">
+      <c r="F16" s="78"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="34">
         <v>97</v>
       </c>
       <c r="J16" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="K16" s="58" t="s">
+      <c r="K16" s="56" t="s">
         <v>326</v>
       </c>
       <c r="L16" s="52"/>
@@ -8835,13 +8919,13 @@
       <c r="N16" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="O16" s="65" t="s">
+      <c r="O16" s="63" t="s">
         <v>92</v>
       </c>
       <c r="P16" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="65" t="s">
+      <c r="Q16" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R16" s="38"/>
@@ -8859,16 +8943,16 @@
       <c r="E17" s="39">
         <v>20</v>
       </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="43">
+      <c r="F17" s="78"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="34">
         <v>98</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="K17" s="58" t="s">
+      <c r="K17" s="56" t="s">
         <v>274</v>
       </c>
       <c r="L17" s="52"/>
@@ -8878,21 +8962,21 @@
       <c r="N17" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="O17" s="65" t="s">
+      <c r="O17" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="65" t="s">
+      <c r="P17" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="65" t="s">
+      <c r="Q17" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="104" t="s">
+      <c r="R17" s="96" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="84">
+      <c r="B18" s="76">
         <v>10</v>
       </c>
       <c r="C18" s="39" t="s">
@@ -8904,35 +8988,35 @@
       <c r="E18" s="39">
         <v>20</v>
       </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="43">
+      <c r="F18" s="78"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="34">
         <v>99</v>
       </c>
       <c r="J18" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="K18" s="58" t="s">
+      <c r="K18" s="56" t="s">
         <v>275</v>
       </c>
       <c r="L18" s="52"/>
-      <c r="M18" s="63">
+      <c r="M18" s="61">
         <v>96</v>
       </c>
-      <c r="N18" s="88" t="s">
+      <c r="N18" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="O18" s="89" t="s">
+      <c r="O18" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="89" t="s">
+      <c r="P18" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="64"/>
+      <c r="Q18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="51">
@@ -8947,37 +9031,37 @@
       <c r="E19" s="39">
         <v>50</v>
       </c>
-      <c r="F19" s="86"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="43">
+      <c r="F19" s="78"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="34">
         <v>100</v>
       </c>
       <c r="J19" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="K19" s="58" t="s">
+      <c r="K19" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="L19" s="85"/>
-      <c r="M19" s="90">
+      <c r="L19" s="77"/>
+      <c r="M19" s="82">
         <v>96</v>
       </c>
-      <c r="N19" s="91" t="s">
+      <c r="N19" s="83" t="s">
         <v>242</v>
       </c>
-      <c r="O19" s="92" t="s">
+      <c r="O19" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P19" s="92" t="s">
+      <c r="P19" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="93"/>
-    </row>
-    <row r="20" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q19" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="85"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="51">
         <v>12</v>
       </c>
@@ -8990,35 +9074,35 @@
       <c r="E20" s="39">
         <v>10</v>
       </c>
-      <c r="F20" s="86"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="110">
+      <c r="F20" s="78"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="34">
         <v>101</v>
       </c>
-      <c r="J20" s="111" t="s">
+      <c r="J20" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="K20" s="70" t="s">
+      <c r="K20" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="L20" s="101"/>
-      <c r="M20" s="60">
+      <c r="L20" s="93"/>
+      <c r="M20" s="58">
         <v>97</v>
       </c>
       <c r="N20" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="O20" s="67" t="s">
+      <c r="O20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="67" t="s">
+      <c r="P20" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="67" t="s">
+      <c r="Q20" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="94" t="s">
+      <c r="R20" s="86" t="s">
         <v>251</v>
       </c>
     </row>
@@ -9035,29 +9119,39 @@
       <c r="E21" s="39">
         <v>6</v>
       </c>
-      <c r="F21" s="86"/>
-      <c r="G21" s="87"/>
-      <c r="L21" s="44"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="34">
+        <v>102</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="L21" s="52"/>
       <c r="M21" s="34">
         <v>98</v>
       </c>
       <c r="N21" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="65" t="s">
+      <c r="O21" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P21" s="65" t="s">
+      <c r="P21" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="65" t="s">
+      <c r="Q21" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R21" s="35" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="51">
         <v>14</v>
       </c>
@@ -9070,28 +9164,38 @@
       <c r="E22" s="39">
         <v>20</v>
       </c>
-      <c r="F22" s="86"/>
-      <c r="G22" s="87"/>
-      <c r="L22" s="44"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="33">
+        <v>103</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="K22" s="68" t="s">
+        <v>333</v>
+      </c>
+      <c r="L22" s="52"/>
       <c r="M22" s="34">
         <v>92</v>
       </c>
       <c r="N22" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="O22" s="65" t="s">
+      <c r="O22" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P22" s="65" t="s">
+      <c r="P22" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="65" t="s">
+      <c r="Q22" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R22" s="35"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="84">
+      <c r="B23" s="76">
         <v>15</v>
       </c>
       <c r="C23" s="39" t="s">
@@ -9103,8 +9207,8 @@
       <c r="E23" s="39">
         <v>10</v>
       </c>
-      <c r="F23" s="86"/>
-      <c r="G23" s="87"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="79"/>
       <c r="L23" s="44"/>
       <c r="M23" s="34">
         <v>93</v>
@@ -9112,13 +9216,13 @@
       <c r="N23" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="O23" s="65" t="s">
+      <c r="O23" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="65" t="s">
+      <c r="P23" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q23" s="65" t="s">
+      <c r="Q23" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R23" s="35"/>
@@ -9136,8 +9240,8 @@
       <c r="E24" s="39">
         <v>10</v>
       </c>
-      <c r="F24" s="86"/>
-      <c r="G24" s="87"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="79"/>
       <c r="L24" s="44"/>
       <c r="M24" s="34">
         <v>94</v>
@@ -9148,10 +9252,10 @@
       <c r="O24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="65" t="s">
+      <c r="P24" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q24" s="65" t="s">
+      <c r="Q24" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R24" s="35"/>
@@ -9169,8 +9273,8 @@
       <c r="E25" s="39">
         <v>15</v>
       </c>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79"/>
       <c r="L25" s="44"/>
       <c r="M25" s="24">
         <v>1</v>
@@ -9178,13 +9282,13 @@
       <c r="N25" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="O25" s="65" t="s">
+      <c r="O25" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="P25" s="65" t="s">
+      <c r="P25" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q25" s="65" t="s">
+      <c r="Q25" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R25" s="35"/>
@@ -9202,8 +9306,8 @@
       <c r="E26" s="39">
         <v>15</v>
       </c>
-      <c r="F26" s="86"/>
-      <c r="G26" s="87"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="79"/>
       <c r="L26" s="44"/>
       <c r="M26" s="24">
         <v>95</v>
@@ -9211,13 +9315,13 @@
       <c r="N26" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="O26" s="65" t="s">
+      <c r="O26" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="P26" s="65" t="s">
+      <c r="P26" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q26" s="65" t="s">
+      <c r="Q26" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R26" s="35"/>
@@ -9235,8 +9339,8 @@
       <c r="E27" s="39">
         <v>20</v>
       </c>
-      <c r="F27" s="86"/>
-      <c r="G27" s="87"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="79"/>
       <c r="L27" s="44"/>
       <c r="M27" s="34">
         <v>8</v>
@@ -9244,19 +9348,19 @@
       <c r="N27" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="O27" s="65" t="s">
+      <c r="O27" s="63" t="s">
         <v>92</v>
       </c>
       <c r="P27" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="65" t="s">
+      <c r="Q27" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="84">
+      <c r="B28" s="76">
         <v>20</v>
       </c>
       <c r="C28" s="39" t="s">
@@ -9268,8 +9372,8 @@
       <c r="E28" s="39">
         <v>50</v>
       </c>
-      <c r="F28" s="86"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="79"/>
       <c r="L28" s="44"/>
       <c r="M28" s="24">
         <v>87</v>
@@ -9277,13 +9381,13 @@
       <c r="N28" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="O28" s="65" t="s">
+      <c r="O28" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P28" s="65" t="s">
+      <c r="P28" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="65" t="s">
+      <c r="Q28" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R28" s="35" t="s">
@@ -9303,25 +9407,25 @@
       <c r="E29" s="39">
         <v>50</v>
       </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="87"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79"/>
       <c r="L29" s="44"/>
-      <c r="M29" s="63">
+      <c r="M29" s="61">
         <v>96</v>
       </c>
-      <c r="N29" s="88" t="s">
+      <c r="N29" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="O29" s="89" t="s">
+      <c r="O29" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P29" s="89" t="s">
+      <c r="P29" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="R29" s="64"/>
+      <c r="Q29" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="62"/>
     </row>
     <row r="30" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="51">
@@ -9336,25 +9440,25 @@
       <c r="E30" s="39">
         <v>5</v>
       </c>
-      <c r="F30" s="86"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
       <c r="L30" s="45"/>
-      <c r="M30" s="90">
+      <c r="M30" s="82">
         <v>96</v>
       </c>
-      <c r="N30" s="91" t="s">
+      <c r="N30" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="O30" s="92" t="s">
+      <c r="O30" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P30" s="92" t="s">
+      <c r="P30" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R30" s="98"/>
+      <c r="Q30" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="90"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="51">
@@ -9369,25 +9473,25 @@
       <c r="E31" s="39">
         <v>200</v>
       </c>
-      <c r="F31" s="86"/>
-      <c r="G31" s="87"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="60">
+      <c r="F31" s="78"/>
+      <c r="G31" s="79"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="58">
         <v>101</v>
       </c>
       <c r="N31" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="O31" s="67" t="s">
+      <c r="O31" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P31" s="67" t="s">
+      <c r="P31" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q31" s="67" t="s">
+      <c r="Q31" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R31" s="94" t="s">
+      <c r="R31" s="86" t="s">
         <v>251</v>
       </c>
     </row>
@@ -9404,8 +9508,8 @@
       <c r="E32" s="39">
         <v>200</v>
       </c>
-      <c r="F32" s="86"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="79"/>
       <c r="L32" s="44"/>
       <c r="M32" s="34">
         <v>98</v>
@@ -9413,13 +9517,13 @@
       <c r="N32" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="O32" s="65" t="s">
+      <c r="O32" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P32" s="65" t="s">
+      <c r="P32" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="65" t="s">
+      <c r="Q32" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R32" s="35" t="s">
@@ -9427,7 +9531,7 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="84">
+      <c r="B33" s="76">
         <v>25</v>
       </c>
       <c r="C33" s="39" t="s">
@@ -9439,8 +9543,8 @@
       <c r="E33" s="39">
         <v>20</v>
       </c>
-      <c r="F33" s="86"/>
-      <c r="G33" s="87"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
       <c r="L33" s="44"/>
       <c r="M33" s="34">
         <v>92</v>
@@ -9448,13 +9552,13 @@
       <c r="N33" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="O33" s="65" t="s">
+      <c r="O33" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P33" s="65" t="s">
+      <c r="P33" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="65" t="s">
+      <c r="Q33" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R33" s="35"/>
@@ -9469,11 +9573,11 @@
       <c r="D34" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="39">
-        <v>22</v>
-      </c>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
+      <c r="E34" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
       <c r="L34" s="44"/>
       <c r="M34" s="34">
         <v>93</v>
@@ -9481,13 +9585,13 @@
       <c r="N34" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="O34" s="65" t="s">
+      <c r="O34" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P34" s="65" t="s">
+      <c r="P34" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q34" s="65" t="s">
+      <c r="Q34" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R34" s="35"/>
@@ -9502,11 +9606,11 @@
       <c r="D35" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="39">
-        <v>22</v>
-      </c>
-      <c r="F35" s="86"/>
-      <c r="G35" s="87"/>
+      <c r="E35" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F35" s="78"/>
+      <c r="G35" s="79"/>
       <c r="L35" s="44"/>
       <c r="M35" s="34">
         <v>94</v>
@@ -9517,10 +9621,10 @@
       <c r="O35" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="65" t="s">
+      <c r="P35" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q35" s="65" t="s">
+      <c r="Q35" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R35" s="35"/>
@@ -9535,11 +9639,11 @@
       <c r="D36" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="39">
-        <v>22</v>
-      </c>
-      <c r="F36" s="86"/>
-      <c r="G36" s="87"/>
+      <c r="E36" s="122" t="s">
+        <v>341</v>
+      </c>
+      <c r="F36" s="78"/>
+      <c r="G36" s="79"/>
       <c r="L36" s="44"/>
       <c r="M36" s="24">
         <v>1</v>
@@ -9547,13 +9651,13 @@
       <c r="N36" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="O36" s="65" t="s">
+      <c r="O36" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="P36" s="65" t="s">
+      <c r="P36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q36" s="65" t="s">
+      <c r="Q36" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R36" s="35"/>
@@ -9568,11 +9672,11 @@
       <c r="D37" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="39">
-        <v>22</v>
-      </c>
-      <c r="F37" s="86"/>
-      <c r="G37" s="87"/>
+      <c r="E37" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F37" s="78"/>
+      <c r="G37" s="79"/>
       <c r="L37" s="44"/>
       <c r="M37" s="24">
         <v>95</v>
@@ -9580,19 +9684,19 @@
       <c r="N37" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="O37" s="65" t="s">
+      <c r="O37" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="P37" s="65" t="s">
+      <c r="P37" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q37" s="65" t="s">
+      <c r="Q37" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R37" s="35"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="84">
+      <c r="B38" s="76">
         <v>30</v>
       </c>
       <c r="C38" s="39" t="s">
@@ -9601,11 +9705,11 @@
       <c r="D38" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="39">
-        <v>22</v>
-      </c>
-      <c r="F38" s="86"/>
-      <c r="G38" s="87"/>
+      <c r="E38" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F38" s="78"/>
+      <c r="G38" s="79"/>
       <c r="L38" s="44"/>
       <c r="M38" s="34">
         <v>9</v>
@@ -9613,13 +9717,13 @@
       <c r="N38" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="O38" s="65" t="s">
+      <c r="O38" s="63" t="s">
         <v>92</v>
       </c>
       <c r="P38" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="65" t="s">
+      <c r="Q38" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R38" s="35"/>
@@ -9634,11 +9738,11 @@
       <c r="D39" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="39">
-        <v>22</v>
-      </c>
-      <c r="F39" s="86"/>
-      <c r="G39" s="87"/>
+      <c r="E39" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
       <c r="L39" s="44"/>
       <c r="M39" s="24">
         <v>87</v>
@@ -9646,13 +9750,13 @@
       <c r="N39" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="O39" s="65" t="s">
+      <c r="O39" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P39" s="65" t="s">
+      <c r="P39" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="65" t="s">
+      <c r="Q39" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R39" s="35" t="s">
@@ -9669,28 +9773,28 @@
       <c r="D40" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="39">
-        <v>22</v>
-      </c>
-      <c r="F40" s="86"/>
-      <c r="G40" s="87"/>
+      <c r="E40" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F40" s="78"/>
+      <c r="G40" s="79"/>
       <c r="L40" s="44"/>
-      <c r="M40" s="63">
+      <c r="M40" s="61">
         <v>96</v>
       </c>
-      <c r="N40" s="88" t="s">
+      <c r="N40" s="80" t="s">
         <v>247</v>
       </c>
-      <c r="O40" s="89" t="s">
+      <c r="O40" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P40" s="89" t="s">
+      <c r="P40" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="R40" s="64"/>
+      <c r="Q40" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="62"/>
     </row>
     <row r="41" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="51">
@@ -9702,28 +9806,28 @@
       <c r="D41" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="39">
-        <v>22</v>
-      </c>
-      <c r="F41" s="86"/>
-      <c r="G41" s="87"/>
+      <c r="E41" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F41" s="78"/>
+      <c r="G41" s="79"/>
       <c r="L41" s="45"/>
-      <c r="M41" s="90">
+      <c r="M41" s="82">
         <v>96</v>
       </c>
-      <c r="N41" s="91" t="s">
+      <c r="N41" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="O41" s="92" t="s">
+      <c r="O41" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P41" s="92" t="s">
+      <c r="P41" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q41" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R41" s="98"/>
+      <c r="Q41" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" s="90"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42" s="51">
@@ -9735,33 +9839,33 @@
       <c r="D42" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="39">
-        <v>22</v>
-      </c>
-      <c r="F42" s="86"/>
-      <c r="G42" s="87"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="60">
+      <c r="E42" s="122" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="78"/>
+      <c r="G42" s="79"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="58">
         <v>99</v>
       </c>
       <c r="N42" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="O42" s="67" t="s">
+      <c r="O42" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P42" s="67" t="s">
+      <c r="P42" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q42" s="67" t="s">
+      <c r="Q42" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R42" s="94" t="s">
+      <c r="R42" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="84">
+      <c r="B43" s="76">
         <v>35</v>
       </c>
       <c r="C43" s="39" t="s">
@@ -9770,25 +9874,25 @@
       <c r="D43" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="39">
-        <v>22</v>
-      </c>
-      <c r="F43" s="86"/>
-      <c r="G43" s="87"/>
-      <c r="L43" s="99"/>
+      <c r="E43" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F43" s="78"/>
+      <c r="G43" s="79"/>
+      <c r="L43" s="91"/>
       <c r="M43" s="34">
         <v>100</v>
       </c>
       <c r="N43" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="O43" s="65" t="s">
+      <c r="O43" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P43" s="65" t="s">
+      <c r="P43" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q43" s="65" t="s">
+      <c r="Q43" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R43" s="35" t="s">
@@ -9805,25 +9909,25 @@
       <c r="D44" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="39">
-        <v>22</v>
-      </c>
-      <c r="F44" s="86"/>
-      <c r="G44" s="87"/>
-      <c r="L44" s="99"/>
+      <c r="E44" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F44" s="78"/>
+      <c r="G44" s="79"/>
+      <c r="L44" s="91"/>
       <c r="M44" s="34">
         <v>92</v>
       </c>
       <c r="N44" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="O44" s="65" t="s">
+      <c r="O44" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P44" s="65" t="s">
+      <c r="P44" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="65" t="s">
+      <c r="Q44" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R44" s="35"/>
@@ -9838,25 +9942,25 @@
       <c r="D45" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="39">
-        <v>22</v>
-      </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="87"/>
-      <c r="L45" s="99"/>
+      <c r="E45" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
+      <c r="L45" s="91"/>
       <c r="M45" s="34">
         <v>93</v>
       </c>
       <c r="N45" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="O45" s="65" t="s">
+      <c r="O45" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P45" s="65" t="s">
+      <c r="P45" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q45" s="65" t="s">
+      <c r="Q45" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R45" s="35"/>
@@ -9871,12 +9975,12 @@
       <c r="D46" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="39">
-        <v>22</v>
-      </c>
-      <c r="F46" s="86"/>
-      <c r="G46" s="87"/>
-      <c r="L46" s="99"/>
+      <c r="E46" s="122" t="s">
+        <v>344</v>
+      </c>
+      <c r="F46" s="78"/>
+      <c r="G46" s="79"/>
+      <c r="L46" s="91"/>
       <c r="M46" s="34">
         <v>94</v>
       </c>
@@ -9886,10 +9990,10 @@
       <c r="O46" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P46" s="65" t="s">
+      <c r="P46" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q46" s="65" t="s">
+      <c r="Q46" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R46" s="35"/>
@@ -9904,31 +10008,31 @@
       <c r="D47" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="39">
-        <v>22</v>
-      </c>
-      <c r="F47" s="86"/>
-      <c r="G47" s="87"/>
-      <c r="L47" s="99"/>
+      <c r="E47" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F47" s="78"/>
+      <c r="G47" s="79"/>
+      <c r="L47" s="91"/>
       <c r="M47" s="24">
         <v>1</v>
       </c>
       <c r="N47" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="O47" s="65" t="s">
+      <c r="O47" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="P47" s="65" t="s">
+      <c r="P47" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q47" s="65" t="s">
+      <c r="Q47" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R47" s="35"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="84">
+      <c r="B48" s="76">
         <v>40</v>
       </c>
       <c r="C48" s="39" t="s">
@@ -9937,25 +10041,25 @@
       <c r="D48" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="39">
-        <v>22</v>
-      </c>
-      <c r="F48" s="86"/>
-      <c r="G48" s="87"/>
-      <c r="L48" s="99"/>
+      <c r="E48" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F48" s="78"/>
+      <c r="G48" s="79"/>
+      <c r="L48" s="91"/>
       <c r="M48" s="24">
         <v>95</v>
       </c>
       <c r="N48" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="O48" s="65" t="s">
+      <c r="O48" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="P48" s="65" t="s">
+      <c r="P48" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="65" t="s">
+      <c r="Q48" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R48" s="35"/>
@@ -9970,25 +10074,25 @@
       <c r="D49" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="39">
-        <v>22</v>
-      </c>
-      <c r="F49" s="86"/>
-      <c r="G49" s="87"/>
-      <c r="L49" s="99"/>
+      <c r="E49" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F49" s="78"/>
+      <c r="G49" s="79"/>
+      <c r="L49" s="91"/>
       <c r="M49" s="34">
         <v>11</v>
       </c>
       <c r="N49" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="O49" s="65" t="s">
+      <c r="O49" s="63" t="s">
         <v>92</v>
       </c>
       <c r="P49" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Q49" s="65" t="s">
+      <c r="Q49" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R49" s="35"/>
@@ -10003,25 +10107,25 @@
       <c r="D50" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="39">
-        <v>22</v>
-      </c>
-      <c r="F50" s="86"/>
-      <c r="G50" s="87"/>
-      <c r="L50" s="99"/>
+      <c r="E50" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F50" s="78"/>
+      <c r="G50" s="79"/>
+      <c r="L50" s="91"/>
       <c r="M50" s="24">
         <v>87</v>
       </c>
       <c r="N50" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="O50" s="65" t="s">
+      <c r="O50" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P50" s="65" t="s">
+      <c r="P50" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="65" t="s">
+      <c r="Q50" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R50" s="35" t="s">
@@ -10038,28 +10142,28 @@
       <c r="D51" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="39">
-        <v>22</v>
-      </c>
-      <c r="F51" s="86"/>
-      <c r="G51" s="87"/>
-      <c r="L51" s="99"/>
-      <c r="M51" s="63">
+      <c r="E51" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F51" s="78"/>
+      <c r="G51" s="79"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="61">
         <v>96</v>
       </c>
-      <c r="N51" s="88" t="s">
+      <c r="N51" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="O51" s="89" t="s">
+      <c r="O51" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="P51" s="89" t="s">
+      <c r="P51" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="R51" s="64"/>
+      <c r="Q51" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="62"/>
     </row>
     <row r="52" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="51">
@@ -10071,31 +10175,31 @@
       <c r="D52" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="39">
-        <v>22</v>
-      </c>
-      <c r="F52" s="86"/>
-      <c r="G52" s="87"/>
-      <c r="L52" s="100"/>
-      <c r="M52" s="90">
+      <c r="E52" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F52" s="78"/>
+      <c r="G52" s="79"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="82">
         <v>96</v>
       </c>
-      <c r="N52" s="91" t="s">
+      <c r="N52" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="O52" s="92" t="s">
+      <c r="O52" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P52" s="92" t="s">
+      <c r="P52" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q52" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R52" s="98"/>
+      <c r="Q52" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="90"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="84">
+      <c r="B53" s="76">
         <v>45</v>
       </c>
       <c r="C53" s="39" t="s">
@@ -10104,28 +10208,28 @@
       <c r="D53" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="39">
-        <v>22</v>
-      </c>
-      <c r="F53" s="86"/>
-      <c r="G53" s="87"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="60">
+      <c r="E53" s="122" t="s">
+        <v>345</v>
+      </c>
+      <c r="F53" s="78"/>
+      <c r="G53" s="79"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="58">
         <v>90</v>
       </c>
       <c r="N53" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="O53" s="67" t="s">
+      <c r="O53" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P53" s="67" t="s">
+      <c r="P53" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q53" s="67" t="s">
+      <c r="Q53" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R53" s="94" t="s">
+      <c r="R53" s="86" t="s">
         <v>251</v>
       </c>
     </row>
@@ -10139,11 +10243,11 @@
       <c r="D54" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="39">
-        <v>22</v>
-      </c>
-      <c r="F54" s="86"/>
-      <c r="G54" s="87"/>
+      <c r="E54" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F54" s="78"/>
+      <c r="G54" s="79"/>
       <c r="L54" s="44"/>
       <c r="M54" s="34">
         <v>95</v>
@@ -10151,13 +10255,13 @@
       <c r="N54" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O54" s="65" t="s">
+      <c r="O54" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="P54" s="65" t="s">
+      <c r="P54" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q54" s="65" t="s">
+      <c r="Q54" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R54" s="35"/>
@@ -10172,11 +10276,11 @@
       <c r="D55" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="39">
-        <v>22</v>
-      </c>
-      <c r="F55" s="86"/>
-      <c r="G55" s="87"/>
+      <c r="E55" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F55" s="78"/>
+      <c r="G55" s="79"/>
       <c r="L55" s="44"/>
       <c r="M55" s="34">
         <v>95</v>
@@ -10184,13 +10288,13 @@
       <c r="N55" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O55" s="65" t="s">
+      <c r="O55" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="P55" s="65" t="s">
+      <c r="P55" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q55" s="65" t="s">
+      <c r="Q55" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R55" s="35"/>
@@ -10205,28 +10309,28 @@
       <c r="D56" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="39">
-        <v>22</v>
-      </c>
-      <c r="F56" s="86"/>
-      <c r="G56" s="87"/>
+      <c r="E56" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F56" s="78"/>
+      <c r="G56" s="79"/>
       <c r="L56" s="44"/>
-      <c r="M56" s="34">
-        <v>95</v>
+      <c r="M56" s="102">
+        <v>102</v>
       </c>
       <c r="N56" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O56" s="65" t="s">
+      <c r="O56" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="P56" s="65" t="s">
+      <c r="P56" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q56" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="R56" s="35"/>
+      <c r="Q56" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="38"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" s="51">
@@ -10238,31 +10342,31 @@
       <c r="D57" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="39">
-        <v>22</v>
-      </c>
-      <c r="F57" s="86"/>
-      <c r="G57" s="87"/>
+      <c r="E57" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F57" s="78"/>
+      <c r="G57" s="79"/>
       <c r="L57" s="44"/>
-      <c r="M57" s="34">
-        <v>95</v>
+      <c r="M57" s="102">
+        <v>103</v>
       </c>
       <c r="N57" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O57" s="65" t="s">
+      <c r="O57" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="P57" s="65" t="s">
+      <c r="P57" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q57" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="R57" s="35"/>
+      <c r="Q57" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R57" s="38"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="84">
+      <c r="B58" s="76">
         <v>50</v>
       </c>
       <c r="C58" s="39" t="s">
@@ -10271,11 +10375,11 @@
       <c r="D58" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="39">
-        <v>22</v>
-      </c>
-      <c r="F58" s="86"/>
-      <c r="G58" s="87"/>
+      <c r="E58" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F58" s="78"/>
+      <c r="G58" s="79"/>
       <c r="L58" s="44"/>
       <c r="M58" s="34">
         <v>95</v>
@@ -10283,13 +10387,13 @@
       <c r="N58" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O58" s="65" t="s">
+      <c r="O58" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="P58" s="65" t="s">
+      <c r="P58" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="Q58" s="65" t="s">
+      <c r="Q58" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R58" s="35"/>
@@ -10304,11 +10408,11 @@
       <c r="D59" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="39">
-        <v>22</v>
-      </c>
-      <c r="F59" s="86"/>
-      <c r="G59" s="87"/>
+      <c r="E59" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F59" s="78"/>
+      <c r="G59" s="79"/>
       <c r="L59" s="44"/>
       <c r="M59" s="34">
         <v>95</v>
@@ -10316,13 +10420,13 @@
       <c r="N59" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O59" s="65" t="s">
+      <c r="O59" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="P59" s="65" t="s">
+      <c r="P59" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="Q59" s="65" t="s">
+      <c r="Q59" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R59" s="35"/>
@@ -10337,11 +10441,11 @@
       <c r="D60" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="39">
-        <v>22</v>
-      </c>
-      <c r="F60" s="86"/>
-      <c r="G60" s="87"/>
+      <c r="E60" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F60" s="78"/>
+      <c r="G60" s="79"/>
       <c r="L60" s="44"/>
       <c r="M60" s="34">
         <v>7</v>
@@ -10349,13 +10453,13 @@
       <c r="N60" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O60" s="65" t="s">
+      <c r="O60" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="P60" s="65" t="s">
+      <c r="P60" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="Q60" s="65" t="s">
+      <c r="Q60" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R60" s="35"/>
@@ -10370,11 +10474,11 @@
       <c r="D61" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="39">
-        <v>22</v>
-      </c>
-      <c r="F61" s="86"/>
-      <c r="G61" s="87"/>
+      <c r="E61" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F61" s="78"/>
+      <c r="G61" s="79"/>
       <c r="L61" s="44"/>
       <c r="M61" s="34">
         <v>95</v>
@@ -10382,13 +10486,13 @@
       <c r="N61" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O61" s="65" t="s">
+      <c r="O61" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="P61" s="65" t="s">
+      <c r="P61" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="Q61" s="65" t="s">
+      <c r="Q61" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R61" s="35"/>
@@ -10403,11 +10507,11 @@
       <c r="D62" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="39">
-        <v>22</v>
-      </c>
-      <c r="F62" s="86"/>
-      <c r="G62" s="87"/>
+      <c r="E62" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F62" s="78"/>
+      <c r="G62" s="79"/>
       <c r="L62" s="44"/>
       <c r="M62" s="34">
         <v>95</v>
@@ -10415,19 +10519,19 @@
       <c r="N62" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O62" s="65" t="s">
+      <c r="O62" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="P62" s="65" t="s">
+      <c r="P62" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="Q62" s="65" t="s">
+      <c r="Q62" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R62" s="35"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="84">
+      <c r="B63" s="76">
         <v>55</v>
       </c>
       <c r="C63" s="39" t="s">
@@ -10436,11 +10540,11 @@
       <c r="D63" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="39">
-        <v>22</v>
-      </c>
-      <c r="F63" s="86"/>
-      <c r="G63" s="87"/>
+      <c r="E63" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F63" s="78"/>
+      <c r="G63" s="79"/>
       <c r="L63" s="44"/>
       <c r="M63" s="34">
         <v>95</v>
@@ -10448,13 +10552,13 @@
       <c r="N63" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O63" s="65" t="s">
+      <c r="O63" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="P63" s="65" t="s">
+      <c r="P63" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="Q63" s="65" t="s">
+      <c r="Q63" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R63" s="35"/>
@@ -10469,11 +10573,11 @@
       <c r="D64" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="39">
-        <v>22</v>
-      </c>
-      <c r="F64" s="86"/>
-      <c r="G64" s="87"/>
+      <c r="E64" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F64" s="78"/>
+      <c r="G64" s="79"/>
       <c r="L64" s="44"/>
       <c r="M64" s="34">
         <v>95</v>
@@ -10481,13 +10585,13 @@
       <c r="N64" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O64" s="65" t="s">
+      <c r="O64" s="63" t="s">
         <v>291</v>
       </c>
-      <c r="P64" s="65" t="s">
+      <c r="P64" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="Q64" s="65" t="s">
+      <c r="Q64" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R64" s="35"/>
@@ -10502,11 +10606,11 @@
       <c r="D65" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="39">
-        <v>22</v>
-      </c>
-      <c r="F65" s="86"/>
-      <c r="G65" s="87"/>
+      <c r="E65" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F65" s="78"/>
+      <c r="G65" s="79"/>
       <c r="L65" s="44"/>
       <c r="M65" s="34">
         <v>95</v>
@@ -10514,13 +10618,13 @@
       <c r="N65" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O65" s="65" t="s">
+      <c r="O65" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="P65" s="65" t="s">
+      <c r="P65" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="Q65" s="65" t="s">
+      <c r="Q65" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R65" s="35"/>
@@ -10535,11 +10639,11 @@
       <c r="D66" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="39">
-        <v>22</v>
-      </c>
-      <c r="F66" s="86"/>
-      <c r="G66" s="87"/>
+      <c r="E66" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F66" s="78"/>
+      <c r="G66" s="79"/>
       <c r="L66" s="44"/>
       <c r="M66" s="34">
         <v>95</v>
@@ -10547,13 +10651,13 @@
       <c r="N66" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O66" s="65" t="s">
+      <c r="O66" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="P66" s="65" t="s">
+      <c r="P66" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="Q66" s="65" t="s">
+      <c r="Q66" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R66" s="35"/>
@@ -10568,31 +10672,31 @@
       <c r="D67" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="39">
-        <v>22</v>
-      </c>
-      <c r="F67" s="86"/>
-      <c r="G67" s="87"/>
+      <c r="E67" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F67" s="78"/>
+      <c r="G67" s="79"/>
       <c r="L67" s="45"/>
       <c r="M67" s="34">
         <v>95</v>
       </c>
-      <c r="N67" s="91" t="s">
+      <c r="N67" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="O67" s="92" t="s">
+      <c r="O67" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="P67" s="92" t="s">
+      <c r="P67" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="Q67" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R67" s="98"/>
+      <c r="Q67" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="90"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="84">
+      <c r="B68" s="76">
         <v>60</v>
       </c>
       <c r="C68" s="39" t="s">
@@ -10601,28 +10705,28 @@
       <c r="D68" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="39">
-        <v>22</v>
-      </c>
-      <c r="F68" s="86"/>
-      <c r="G68" s="87"/>
-      <c r="L68" s="96"/>
-      <c r="M68" s="60">
+      <c r="E68" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F68" s="78"/>
+      <c r="G68" s="79"/>
+      <c r="L68" s="88"/>
+      <c r="M68" s="58">
         <v>97</v>
       </c>
       <c r="N68" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="O68" s="67" t="s">
+      <c r="O68" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P68" s="67" t="s">
+      <c r="P68" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q68" s="67" t="s">
+      <c r="Q68" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R68" s="94"/>
+      <c r="R68" s="86"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="51">
@@ -10634,11 +10738,11 @@
       <c r="D69" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="39">
-        <v>22</v>
-      </c>
-      <c r="F69" s="86"/>
-      <c r="G69" s="87"/>
+      <c r="E69" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F69" s="78"/>
+      <c r="G69" s="79"/>
       <c r="L69" s="44"/>
       <c r="M69" s="34">
         <v>95</v>
@@ -10646,13 +10750,13 @@
       <c r="N69" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="O69" s="65" t="s">
+      <c r="O69" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="P69" s="65" t="s">
+      <c r="P69" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="Q69" s="65" t="s">
+      <c r="Q69" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R69" s="35"/>
@@ -10667,11 +10771,11 @@
       <c r="D70" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="39">
-        <v>22</v>
-      </c>
-      <c r="F70" s="86"/>
-      <c r="G70" s="87"/>
+      <c r="E70" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F70" s="78"/>
+      <c r="G70" s="79"/>
       <c r="L70" s="44"/>
       <c r="M70" s="34">
         <v>95</v>
@@ -10679,13 +10783,13 @@
       <c r="N70" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="O70" s="65" t="s">
+      <c r="O70" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="P70" s="65" t="s">
+      <c r="P70" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="Q70" s="65" t="s">
+      <c r="Q70" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R70" s="35"/>
@@ -10700,11 +10804,11 @@
       <c r="D71" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="39">
-        <v>22</v>
-      </c>
-      <c r="F71" s="86"/>
-      <c r="G71" s="87"/>
+      <c r="E71" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F71" s="78"/>
+      <c r="G71" s="79"/>
       <c r="L71" s="44"/>
       <c r="M71" s="34">
         <v>95</v>
@@ -10712,13 +10816,13 @@
       <c r="N71" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="O71" s="65" t="s">
+      <c r="O71" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="P71" s="65" t="s">
+      <c r="P71" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="Q71" s="65" t="s">
+      <c r="Q71" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R71" s="35"/>
@@ -10733,11 +10837,11 @@
       <c r="D72" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="39">
-        <v>22</v>
-      </c>
-      <c r="F72" s="86"/>
-      <c r="G72" s="87"/>
+      <c r="E72" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F72" s="78"/>
+      <c r="G72" s="79"/>
       <c r="L72" s="44"/>
       <c r="M72" s="34">
         <v>8</v>
@@ -10745,19 +10849,19 @@
       <c r="N72" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="O72" s="65" t="s">
+      <c r="O72" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="P72" s="65" t="s">
+      <c r="P72" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="Q72" s="65" t="s">
+      <c r="Q72" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R72" s="35"/>
     </row>
     <row r="73" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="84">
+      <c r="B73" s="76">
         <v>65</v>
       </c>
       <c r="C73" s="39" t="s">
@@ -10766,28 +10870,28 @@
       <c r="D73" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="39">
-        <v>22</v>
-      </c>
-      <c r="F73" s="86"/>
-      <c r="G73" s="87"/>
+      <c r="E73" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F73" s="78"/>
+      <c r="G73" s="79"/>
       <c r="L73" s="45"/>
-      <c r="M73" s="97">
+      <c r="M73" s="89">
         <v>95</v>
       </c>
-      <c r="N73" s="91" t="s">
+      <c r="N73" s="83" t="s">
         <v>322</v>
       </c>
-      <c r="O73" s="92" t="s">
+      <c r="O73" s="84" t="s">
         <v>301</v>
       </c>
-      <c r="P73" s="92" t="s">
+      <c r="P73" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="Q73" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R73" s="98"/>
+      <c r="Q73" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R73" s="90"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="51">
@@ -10799,28 +10903,28 @@
       <c r="D74" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="39">
-        <v>22</v>
-      </c>
-      <c r="F74" s="86"/>
-      <c r="G74" s="87"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="60">
+      <c r="E74" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F74" s="78"/>
+      <c r="G74" s="79"/>
+      <c r="L74" s="88"/>
+      <c r="M74" s="58">
         <v>101</v>
       </c>
       <c r="N74" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="O74" s="67" t="s">
+      <c r="O74" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P74" s="67" t="s">
+      <c r="P74" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q74" s="67" t="s">
+      <c r="Q74" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R74" s="94"/>
+      <c r="R74" s="86"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="51">
@@ -10832,11 +10936,11 @@
       <c r="D75" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E75" s="39">
-        <v>22</v>
-      </c>
-      <c r="F75" s="86"/>
-      <c r="G75" s="87"/>
+      <c r="E75" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F75" s="78"/>
+      <c r="G75" s="79"/>
       <c r="L75" s="44"/>
       <c r="M75" s="34">
         <v>95</v>
@@ -10844,13 +10948,13 @@
       <c r="N75" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="O75" s="65" t="s">
+      <c r="O75" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="P75" s="65" t="s">
+      <c r="P75" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="Q75" s="65" t="s">
+      <c r="Q75" s="63" t="s">
         <v>18</v>
       </c>
       <c r="R75" s="35"/>
@@ -10865,11 +10969,11 @@
       <c r="D76" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E76" s="39">
-        <v>22</v>
-      </c>
-      <c r="F76" s="86"/>
-      <c r="G76" s="87"/>
+      <c r="E76" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F76" s="78"/>
+      <c r="G76" s="79"/>
       <c r="L76" s="44"/>
       <c r="M76" s="34">
         <v>95</v>
@@ -10877,13 +10981,13 @@
       <c r="N76" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="O76" s="65" t="s">
+      <c r="O76" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="P76" s="65" t="s">
+      <c r="P76" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="Q76" s="65" t="s">
+      <c r="Q76" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R76" s="35"/>
@@ -10898,11 +11002,11 @@
       <c r="D77" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="39">
-        <v>22</v>
-      </c>
-      <c r="F77" s="86"/>
-      <c r="G77" s="87"/>
+      <c r="E77" s="122" t="s">
+        <v>346</v>
+      </c>
+      <c r="F77" s="78"/>
+      <c r="G77" s="79"/>
       <c r="L77" s="44"/>
       <c r="M77" s="34">
         <v>95</v>
@@ -10910,19 +11014,19 @@
       <c r="N77" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="O77" s="65" t="s">
+      <c r="O77" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="P77" s="65" t="s">
+      <c r="P77" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="Q77" s="65" t="s">
+      <c r="Q77" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R77" s="35"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="84">
+      <c r="B78" s="76">
         <v>70</v>
       </c>
       <c r="C78" s="39" t="s">
@@ -10931,11 +11035,11 @@
       <c r="D78" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="39">
-        <v>22</v>
-      </c>
-      <c r="F78" s="86"/>
-      <c r="G78" s="87"/>
+      <c r="E78" s="122" t="s">
+        <v>345</v>
+      </c>
+      <c r="F78" s="78"/>
+      <c r="G78" s="79"/>
       <c r="L78" s="44"/>
       <c r="M78" s="34">
         <v>9</v>
@@ -10943,13 +11047,13 @@
       <c r="N78" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="O78" s="65" t="s">
+      <c r="O78" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="P78" s="65" t="s">
+      <c r="P78" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="Q78" s="65" t="s">
+      <c r="Q78" s="63" t="s">
         <v>21</v>
       </c>
       <c r="R78" s="35"/>
@@ -10964,28 +11068,28 @@
       <c r="D79" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E79" s="39">
-        <v>22</v>
-      </c>
-      <c r="F79" s="86"/>
-      <c r="G79" s="87"/>
+      <c r="E79" s="122" t="s">
+        <v>345</v>
+      </c>
+      <c r="F79" s="78"/>
+      <c r="G79" s="79"/>
       <c r="L79" s="45"/>
-      <c r="M79" s="97">
+      <c r="M79" s="89">
         <v>95</v>
       </c>
-      <c r="N79" s="91" t="s">
+      <c r="N79" s="83" t="s">
         <v>323</v>
       </c>
-      <c r="O79" s="92" t="s">
+      <c r="O79" s="84" t="s">
         <v>301</v>
       </c>
-      <c r="P79" s="92" t="s">
+      <c r="P79" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="Q79" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="R79" s="98"/>
+      <c r="Q79" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R79" s="90"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" s="51">
@@ -10997,28 +11101,28 @@
       <c r="D80" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="39">
-        <v>22</v>
-      </c>
-      <c r="F80" s="86"/>
-      <c r="G80" s="87"/>
-      <c r="L80" s="96"/>
-      <c r="M80" s="60">
+      <c r="E80" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="F80" s="78"/>
+      <c r="G80" s="79"/>
+      <c r="L80" s="88"/>
+      <c r="M80" s="58">
         <v>99</v>
       </c>
-      <c r="N80" s="67" t="s">
+      <c r="N80" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="O80" s="67" t="s">
+      <c r="O80" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P80" s="67" t="s">
+      <c r="P80" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q80" s="67" t="s">
+      <c r="Q80" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R80" s="94"/>
+      <c r="R80" s="86"/>
     </row>
     <row r="81" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" s="51">
@@ -11030,25 +11134,25 @@
       <c r="D81" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E81" s="39">
-        <v>22</v>
-      </c>
-      <c r="F81" s="86"/>
-      <c r="G81" s="87"/>
+      <c r="E81" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F81" s="78"/>
+      <c r="G81" s="79"/>
       <c r="L81" s="45"/>
       <c r="M81" s="33">
         <v>11</v>
       </c>
-      <c r="N81" s="68" t="s">
+      <c r="N81" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="O81" s="68" t="s">
+      <c r="O81" s="66" t="s">
         <v>302</v>
       </c>
       <c r="P81" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="Q81" s="68" t="s">
+      <c r="Q81" s="66" t="s">
         <v>21</v>
       </c>
       <c r="R81" s="36"/>
@@ -11063,14 +11167,14 @@
       <c r="D82" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E82" s="39">
-        <v>22</v>
-      </c>
-      <c r="F82" s="86"/>
-      <c r="G82" s="87"/>
+      <c r="E82" s="122" t="s">
+        <v>341</v>
+      </c>
+      <c r="F82" s="78"/>
+      <c r="G82" s="79"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="84">
+      <c r="B83" s="76">
         <v>75</v>
       </c>
       <c r="C83" s="39" t="s">
@@ -11079,11 +11183,11 @@
       <c r="D83" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E83" s="39">
-        <v>22</v>
-      </c>
-      <c r="F83" s="86"/>
-      <c r="G83" s="87"/>
+      <c r="E83" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F83" s="78"/>
+      <c r="G83" s="79"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B84" s="51">
@@ -11095,11 +11199,11 @@
       <c r="D84" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E84" s="39">
-        <v>22</v>
-      </c>
-      <c r="F84" s="86"/>
-      <c r="G84" s="87"/>
+      <c r="E84" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F84" s="78"/>
+      <c r="G84" s="79"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B85" s="51">
@@ -11111,11 +11215,11 @@
       <c r="D85" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="39">
-        <v>22</v>
-      </c>
-      <c r="F85" s="86"/>
-      <c r="G85" s="87"/>
+      <c r="E85" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="F85" s="78"/>
+      <c r="G85" s="79"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B86" s="51">
@@ -11130,8 +11234,8 @@
       <c r="E86" s="39">
         <v>7</v>
       </c>
-      <c r="F86" s="86"/>
-      <c r="G86" s="87"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="79"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B87" s="51">
@@ -11146,11 +11250,11 @@
       <c r="E87" s="39">
         <v>7</v>
       </c>
-      <c r="F87" s="86"/>
-      <c r="G87" s="87"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="79"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="84">
+      <c r="B88" s="76">
         <v>80</v>
       </c>
       <c r="C88" s="39" t="s">
@@ -11162,8 +11266,8 @@
       <c r="E88" s="39">
         <v>7</v>
       </c>
-      <c r="F88" s="86"/>
-      <c r="G88" s="87"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="79"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B89" s="51">
@@ -11178,8 +11282,8 @@
       <c r="E89" s="39">
         <v>7</v>
       </c>
-      <c r="F89" s="86"/>
-      <c r="G89" s="87"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="79"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B90" s="51">
@@ -11194,8 +11298,8 @@
       <c r="E90" s="39">
         <v>7</v>
       </c>
-      <c r="F90" s="86"/>
-      <c r="G90" s="87"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="79"/>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B91" s="51">
@@ -11210,8 +11314,8 @@
       <c r="E91" s="39">
         <v>7</v>
       </c>
-      <c r="F91" s="86"/>
-      <c r="G91" s="87"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="79"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B92" s="51">
@@ -11226,11 +11330,11 @@
       <c r="E92" s="39">
         <v>7</v>
       </c>
-      <c r="F92" s="86"/>
-      <c r="G92" s="87"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="79"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="84">
+      <c r="B93" s="76">
         <v>85</v>
       </c>
       <c r="C93" s="39" t="s">
@@ -11242,8 +11346,8 @@
       <c r="E93" s="39">
         <v>7</v>
       </c>
-      <c r="F93" s="86"/>
-      <c r="G93" s="87"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="79"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B94" s="51">
@@ -11258,8 +11362,8 @@
       <c r="E94" s="39">
         <v>7</v>
       </c>
-      <c r="F94" s="86"/>
-      <c r="G94" s="87"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="79"/>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B95" s="51">
@@ -11274,8 +11378,8 @@
       <c r="E95" s="39">
         <v>7</v>
       </c>
-      <c r="F95" s="86"/>
-      <c r="G95" s="87"/>
+      <c r="F95" s="78"/>
+      <c r="G95" s="79"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B96" s="51">
@@ -11290,20 +11394,20 @@
       <c r="E96" s="39">
         <v>7</v>
       </c>
-      <c r="F96" s="86"/>
-      <c r="G96" s="87"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="79"/>
     </row>
     <row r="97" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="56">
+      <c r="B97" s="54">
         <v>89</v>
       </c>
-      <c r="C97" s="57" t="s">
+      <c r="C97" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="D97" s="57" t="s">
+      <c r="D97" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="57">
+      <c r="E97" s="55">
         <v>7</v>
       </c>
       <c r="F97" s="48"/>

--- a/Cnl/Mapeos_UBI_CNL_V1.xlsx
+++ b/Cnl/Mapeos_UBI_CNL_V1.xlsx
@@ -2718,6 +2718,9 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2774,9 +2777,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -3256,7 +3256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3266,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R141"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N115" sqref="N115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3306,26 +3306,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="108"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="25" t="s">
@@ -3338,11 +3338,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="46" t="s">
@@ -3355,11 +3355,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="117"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3371,29 +3371,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="119" t="s">
+      <c r="I7" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="120"/>
-      <c r="K7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="122"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="103" t="s">
+      <c r="M7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -4111,7 +4111,7 @@
       <c r="D24" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="122" t="s">
+      <c r="E24" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F24" s="72"/>
@@ -4154,7 +4154,7 @@
       <c r="D25" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="122" t="s">
+      <c r="E25" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F25" s="72"/>
@@ -4197,7 +4197,7 @@
       <c r="D26" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="122" t="s">
+      <c r="E26" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F26" s="72"/>
@@ -4240,7 +4240,7 @@
       <c r="D27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="122" t="s">
+      <c r="E27" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F27" s="72"/>
@@ -4283,7 +4283,7 @@
       <c r="D28" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="122" t="s">
+      <c r="E28" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F28" s="72"/>
@@ -4328,7 +4328,7 @@
       <c r="D29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="122" t="s">
+      <c r="E29" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F29" s="72"/>
@@ -4371,7 +4371,7 @@
       <c r="D30" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="122" t="s">
+      <c r="E30" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F30" s="72"/>
@@ -4414,7 +4414,7 @@
       <c r="D31" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="122" t="s">
+      <c r="E31" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F31" s="72"/>
@@ -4459,7 +4459,7 @@
       <c r="D32" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="122" t="s">
+      <c r="E32" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F32" s="72"/>
@@ -4504,7 +4504,7 @@
       <c r="D33" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="122" t="s">
+      <c r="E33" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F33" s="72"/>
@@ -4537,7 +4537,7 @@
       <c r="D34" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="122" t="s">
+      <c r="E34" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F34" s="72"/>
@@ -4570,7 +4570,7 @@
       <c r="D35" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="122" t="s">
+      <c r="E35" s="103" t="s">
         <v>341</v>
       </c>
       <c r="F35" s="72"/>
@@ -4603,7 +4603,7 @@
       <c r="D36" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="122" t="s">
+      <c r="E36" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F36" s="72"/>
@@ -4636,7 +4636,7 @@
       <c r="D37" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="122" t="s">
+      <c r="E37" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F37" s="72"/>
@@ -4669,7 +4669,7 @@
       <c r="D38" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="122" t="s">
+      <c r="E38" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F38" s="72"/>
@@ -4702,7 +4702,7 @@
       <c r="D39" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="122" t="s">
+      <c r="E39" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F39" s="72"/>
@@ -6832,7 +6832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K37" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -6870,26 +6870,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="108"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="25" t="s">
@@ -6902,11 +6902,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="46" t="s">
@@ -6919,11 +6919,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="117"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6935,29 +6935,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="119" t="s">
+      <c r="I7" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="120"/>
-      <c r="K7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="122"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="103" t="s">
+      <c r="M7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -7411,7 +7411,7 @@
       <c r="D18" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="122" t="s">
+      <c r="E18" s="103" t="s">
         <v>341</v>
       </c>
       <c r="F18" s="72"/>
@@ -7454,7 +7454,7 @@
       <c r="D19" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F19" s="72"/>
@@ -7499,7 +7499,7 @@
       <c r="D20" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="122" t="s">
+      <c r="E20" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F20" s="72"/>
@@ -7544,7 +7544,7 @@
       <c r="D21" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="122" t="s">
+      <c r="E21" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F21" s="72"/>
@@ -7579,7 +7579,7 @@
       <c r="D22" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F22" s="72"/>
@@ -7612,7 +7612,7 @@
       <c r="D23" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="122" t="s">
+      <c r="E23" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F23" s="72"/>
@@ -7645,7 +7645,7 @@
       <c r="D24" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="122" t="s">
+      <c r="E24" s="103" t="s">
         <v>341</v>
       </c>
       <c r="F24" s="72"/>
@@ -7678,7 +7678,7 @@
       <c r="D25" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="122" t="s">
+      <c r="E25" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F25" s="72"/>
@@ -7711,7 +7711,7 @@
       <c r="D26" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="122" t="s">
+      <c r="E26" s="103" t="s">
         <v>341</v>
       </c>
       <c r="F26" s="72"/>
@@ -7744,7 +7744,7 @@
       <c r="D27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="122" t="s">
+      <c r="E27" s="103" t="s">
         <v>341</v>
       </c>
       <c r="F27" s="72"/>
@@ -7777,7 +7777,7 @@
       <c r="D28" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="122" t="s">
+      <c r="E28" s="103" t="s">
         <v>342</v>
       </c>
       <c r="F28" s="72"/>
@@ -7812,7 +7812,7 @@
       <c r="D29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="122" t="s">
+      <c r="E29" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F29" s="72"/>
@@ -7845,7 +7845,7 @@
       <c r="D30" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="122" t="s">
+      <c r="E30" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F30" s="72"/>
@@ -7878,7 +7878,7 @@
       <c r="D31" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="122" t="s">
+      <c r="E31" s="103" t="s">
         <v>343</v>
       </c>
       <c r="F31" s="72"/>
@@ -7913,7 +7913,7 @@
       <c r="D32" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="122" t="s">
+      <c r="E32" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F32" s="72"/>
@@ -8404,7 +8404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L67" workbookViewId="0">
       <selection activeCell="E34" sqref="E34:E85"/>
     </sheetView>
   </sheetViews>
@@ -8442,26 +8442,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="108"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
       <c r="G3" s="10"/>
       <c r="H3" s="69"/>
       <c r="I3" s="25" t="s">
@@ -8474,11 +8474,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
       <c r="G4" s="7"/>
       <c r="H4" s="70"/>
       <c r="I4" s="46" t="s">
@@ -8491,11 +8491,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="117"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8507,29 +8507,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="119" t="s">
+      <c r="I7" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="120"/>
-      <c r="K7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="122"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="103" t="s">
+      <c r="M7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9573,7 +9573,7 @@
       <c r="D34" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="122" t="s">
+      <c r="E34" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F34" s="78"/>
@@ -9606,7 +9606,7 @@
       <c r="D35" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="122" t="s">
+      <c r="E35" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F35" s="78"/>
@@ -9639,7 +9639,7 @@
       <c r="D36" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="122" t="s">
+      <c r="E36" s="103" t="s">
         <v>341</v>
       </c>
       <c r="F36" s="78"/>
@@ -9672,7 +9672,7 @@
       <c r="D37" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="122" t="s">
+      <c r="E37" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F37" s="78"/>
@@ -9705,7 +9705,7 @@
       <c r="D38" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="122" t="s">
+      <c r="E38" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F38" s="78"/>
@@ -9738,7 +9738,7 @@
       <c r="D39" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="122" t="s">
+      <c r="E39" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F39" s="78"/>
@@ -9773,7 +9773,7 @@
       <c r="D40" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="122" t="s">
+      <c r="E40" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F40" s="78"/>
@@ -9806,7 +9806,7 @@
       <c r="D41" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="122" t="s">
+      <c r="E41" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F41" s="78"/>
@@ -9839,7 +9839,7 @@
       <c r="D42" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="122" t="s">
+      <c r="E42" s="103" t="s">
         <v>341</v>
       </c>
       <c r="F42" s="78"/>
@@ -9874,7 +9874,7 @@
       <c r="D43" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="122" t="s">
+      <c r="E43" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F43" s="78"/>
@@ -9909,7 +9909,7 @@
       <c r="D44" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="122" t="s">
+      <c r="E44" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F44" s="78"/>
@@ -9942,7 +9942,7 @@
       <c r="D45" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="122" t="s">
+      <c r="E45" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F45" s="78"/>
@@ -9975,7 +9975,7 @@
       <c r="D46" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="122" t="s">
+      <c r="E46" s="103" t="s">
         <v>344</v>
       </c>
       <c r="F46" s="78"/>
@@ -10008,7 +10008,7 @@
       <c r="D47" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="122" t="s">
+      <c r="E47" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F47" s="78"/>
@@ -10041,7 +10041,7 @@
       <c r="D48" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="122" t="s">
+      <c r="E48" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F48" s="78"/>
@@ -10074,7 +10074,7 @@
       <c r="D49" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="122" t="s">
+      <c r="E49" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F49" s="78"/>
@@ -10107,7 +10107,7 @@
       <c r="D50" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="122" t="s">
+      <c r="E50" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F50" s="78"/>
@@ -10142,7 +10142,7 @@
       <c r="D51" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="122" t="s">
+      <c r="E51" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F51" s="78"/>
@@ -10175,7 +10175,7 @@
       <c r="D52" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="122" t="s">
+      <c r="E52" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F52" s="78"/>
@@ -10208,7 +10208,7 @@
       <c r="D53" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="122" t="s">
+      <c r="E53" s="103" t="s">
         <v>345</v>
       </c>
       <c r="F53" s="78"/>
@@ -10243,7 +10243,7 @@
       <c r="D54" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="122" t="s">
+      <c r="E54" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F54" s="78"/>
@@ -10276,7 +10276,7 @@
       <c r="D55" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="122" t="s">
+      <c r="E55" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F55" s="78"/>
@@ -10309,7 +10309,7 @@
       <c r="D56" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="122" t="s">
+      <c r="E56" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F56" s="78"/>
@@ -10342,7 +10342,7 @@
       <c r="D57" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="122" t="s">
+      <c r="E57" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F57" s="78"/>
@@ -10375,7 +10375,7 @@
       <c r="D58" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="122" t="s">
+      <c r="E58" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F58" s="78"/>
@@ -10408,7 +10408,7 @@
       <c r="D59" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="122" t="s">
+      <c r="E59" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F59" s="78"/>
@@ -10441,7 +10441,7 @@
       <c r="D60" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="122" t="s">
+      <c r="E60" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F60" s="78"/>
@@ -10474,7 +10474,7 @@
       <c r="D61" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="122" t="s">
+      <c r="E61" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F61" s="78"/>
@@ -10507,7 +10507,7 @@
       <c r="D62" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="122" t="s">
+      <c r="E62" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F62" s="78"/>
@@ -10540,7 +10540,7 @@
       <c r="D63" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="122" t="s">
+      <c r="E63" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F63" s="78"/>
@@ -10573,7 +10573,7 @@
       <c r="D64" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="122" t="s">
+      <c r="E64" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F64" s="78"/>
@@ -10606,7 +10606,7 @@
       <c r="D65" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="122" t="s">
+      <c r="E65" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F65" s="78"/>
@@ -10639,7 +10639,7 @@
       <c r="D66" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="122" t="s">
+      <c r="E66" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F66" s="78"/>
@@ -10672,7 +10672,7 @@
       <c r="D67" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="122" t="s">
+      <c r="E67" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F67" s="78"/>
@@ -10705,7 +10705,7 @@
       <c r="D68" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="122" t="s">
+      <c r="E68" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F68" s="78"/>
@@ -10738,7 +10738,7 @@
       <c r="D69" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="122" t="s">
+      <c r="E69" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F69" s="78"/>
@@ -10771,7 +10771,7 @@
       <c r="D70" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="122" t="s">
+      <c r="E70" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F70" s="78"/>
@@ -10804,7 +10804,7 @@
       <c r="D71" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="122" t="s">
+      <c r="E71" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F71" s="78"/>
@@ -10837,7 +10837,7 @@
       <c r="D72" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="122" t="s">
+      <c r="E72" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F72" s="78"/>
@@ -10870,7 +10870,7 @@
       <c r="D73" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="122" t="s">
+      <c r="E73" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F73" s="78"/>
@@ -10903,7 +10903,7 @@
       <c r="D74" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="122" t="s">
+      <c r="E74" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F74" s="78"/>
@@ -10936,7 +10936,7 @@
       <c r="D75" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E75" s="122" t="s">
+      <c r="E75" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F75" s="78"/>
@@ -10969,7 +10969,7 @@
       <c r="D76" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E76" s="122" t="s">
+      <c r="E76" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F76" s="78"/>
@@ -11002,7 +11002,7 @@
       <c r="D77" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="122" t="s">
+      <c r="E77" s="103" t="s">
         <v>346</v>
       </c>
       <c r="F77" s="78"/>
@@ -11035,7 +11035,7 @@
       <c r="D78" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="122" t="s">
+      <c r="E78" s="103" t="s">
         <v>345</v>
       </c>
       <c r="F78" s="78"/>
@@ -11068,7 +11068,7 @@
       <c r="D79" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E79" s="122" t="s">
+      <c r="E79" s="103" t="s">
         <v>345</v>
       </c>
       <c r="F79" s="78"/>
@@ -11101,7 +11101,7 @@
       <c r="D80" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="122" t="s">
+      <c r="E80" s="103" t="s">
         <v>338</v>
       </c>
       <c r="F80" s="78"/>
@@ -11134,7 +11134,7 @@
       <c r="D81" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E81" s="122" t="s">
+      <c r="E81" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F81" s="78"/>
@@ -11167,7 +11167,7 @@
       <c r="D82" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E82" s="122" t="s">
+      <c r="E82" s="103" t="s">
         <v>341</v>
       </c>
       <c r="F82" s="78"/>
@@ -11183,7 +11183,7 @@
       <c r="D83" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E83" s="122" t="s">
+      <c r="E83" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F83" s="78"/>
@@ -11199,7 +11199,7 @@
       <c r="D84" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E84" s="122" t="s">
+      <c r="E84" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F84" s="78"/>
@@ -11215,7 +11215,7 @@
       <c r="D85" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="122" t="s">
+      <c r="E85" s="103" t="s">
         <v>339</v>
       </c>
       <c r="F85" s="78"/>

--- a/Cnl/Mapeos_UBI_CNL_V1.xlsx
+++ b/Cnl/Mapeos_UBI_CNL_V1.xlsx
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="351">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1601,6 +1601,18 @@
   </si>
   <si>
     <t>22,0</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -2550,7 +2562,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2778,6 +2790,7 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3256,7 +3269,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3266,8 +3279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R141"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N115" sqref="N115"/>
+    <sheetView topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3866,7 +3879,7 @@
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="61">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N18" s="80" t="s">
         <v>97</v>
@@ -4345,7 +4358,7 @@
       </c>
       <c r="L29" s="52"/>
       <c r="M29" s="87">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N29" s="80" t="s">
         <v>99</v>
@@ -4449,7 +4462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="51">
         <v>24</v>
       </c>
@@ -4464,14 +4477,14 @@
       </c>
       <c r="F32" s="72"/>
       <c r="G32" s="95"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="101">
+      <c r="H32" s="44"/>
+      <c r="I32" s="43">
         <v>62</v>
       </c>
-      <c r="J32" s="46" t="s">
+      <c r="J32" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="K32" s="68" t="s">
+      <c r="K32" s="56" t="s">
         <v>331</v>
       </c>
       <c r="L32" s="52"/>
@@ -4508,8 +4521,18 @@
         <v>340</v>
       </c>
       <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
-      <c r="L33" s="44"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="43">
+        <v>63</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="L33" s="52"/>
       <c r="M33" s="34">
         <v>41</v>
       </c>
@@ -4527,7 +4550,7 @@
       </c>
       <c r="R33" s="35"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="76">
         <v>26</v>
       </c>
@@ -4541,8 +4564,18 @@
         <v>338</v>
       </c>
       <c r="F34" s="72"/>
-      <c r="G34" s="73"/>
-      <c r="L34" s="44"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="101">
+        <v>64</v>
+      </c>
+      <c r="J34" s="123" t="s">
+        <v>349</v>
+      </c>
+      <c r="K34" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="L34" s="52"/>
       <c r="M34" s="34">
         <v>42</v>
       </c>
@@ -4744,7 +4777,7 @@
       <c r="G40" s="73"/>
       <c r="L40" s="44"/>
       <c r="M40" s="87">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N40" s="80" t="s">
         <v>100</v>
@@ -5043,7 +5076,7 @@
     <row r="51" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L51" s="44"/>
       <c r="M51" s="87">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N51" s="80" t="s">
         <v>103</v>
@@ -5258,7 +5291,7 @@
     <row r="62" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L62" s="44"/>
       <c r="M62" s="87">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N62" s="80" t="s">
         <v>106</v>
@@ -5473,7 +5506,7 @@
     <row r="73" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L73" s="44"/>
       <c r="M73" s="87">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N73" s="80" t="s">
         <v>109</v>
@@ -5688,7 +5721,7 @@
     <row r="84" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L84" s="44"/>
       <c r="M84" s="87">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N84" s="80" t="s">
         <v>112</v>
@@ -6277,7 +6310,7 @@
     <row r="115" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L115" s="88"/>
       <c r="M115" s="58">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N115" s="53" t="s">
         <v>312</v>
@@ -6416,7 +6449,7 @@
     <row r="122" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L122" s="44"/>
       <c r="M122" s="87">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N122" s="80" t="s">
         <v>312</v>
@@ -6456,7 +6489,7 @@
     <row r="124" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L124" s="88"/>
       <c r="M124" s="58">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N124" s="53" t="s">
         <v>314</v>
@@ -6595,7 +6628,7 @@
     <row r="131" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L131" s="44"/>
       <c r="M131" s="87">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N131" s="80" t="s">
         <v>314</v>
@@ -6635,7 +6668,7 @@
     <row r="133" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L133" s="88"/>
       <c r="M133" s="58">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N133" s="53" t="s">
         <v>316</v>
@@ -6774,7 +6807,7 @@
     <row r="140" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L140" s="44"/>
       <c r="M140" s="87">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N140" s="80" t="s">
         <v>316</v>
@@ -6832,8 +6865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="K37" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7428,7 +7461,7 @@
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="61">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N18" s="80" t="s">
         <v>146</v>
@@ -7489,7 +7522,7 @@
       </c>
       <c r="R19" s="85"/>
     </row>
-    <row r="20" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="51">
         <v>12</v>
       </c>
@@ -7504,14 +7537,14 @@
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="95"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="101">
+      <c r="H20" s="44"/>
+      <c r="I20" s="43">
         <v>42</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="K20" s="68" t="s">
+      <c r="K20" s="56" t="s">
         <v>337</v>
       </c>
       <c r="L20" s="93"/>
@@ -7548,8 +7581,18 @@
         <v>338</v>
       </c>
       <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
-      <c r="L21" s="44"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="43">
+        <v>43</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="L21" s="52"/>
       <c r="M21" s="34">
         <v>39</v>
       </c>
@@ -7569,7 +7612,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="76">
         <v>14</v>
       </c>
@@ -7583,8 +7626,18 @@
         <v>339</v>
       </c>
       <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
-      <c r="L22" s="44"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="101">
+        <v>44</v>
+      </c>
+      <c r="J22" s="123" t="s">
+        <v>349</v>
+      </c>
+      <c r="K22" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="L22" s="52"/>
       <c r="M22" s="34">
         <v>33</v>
       </c>
@@ -7819,7 +7872,7 @@
       <c r="G29" s="73"/>
       <c r="L29" s="44"/>
       <c r="M29" s="61">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N29" s="80" t="s">
         <v>149</v>
@@ -8404,8 +8457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L67" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E85"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9002,7 +9055,7 @@
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="61">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="N18" s="80" t="s">
         <v>242</v>
@@ -9151,7 +9204,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="51">
         <v>14</v>
       </c>
@@ -9166,14 +9219,14 @@
       </c>
       <c r="F22" s="78"/>
       <c r="G22" s="94"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="33">
+      <c r="H22" s="91"/>
+      <c r="I22" s="34">
         <v>103</v>
       </c>
-      <c r="J22" s="46" t="s">
+      <c r="J22" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="K22" s="68" t="s">
+      <c r="K22" s="56" t="s">
         <v>333</v>
       </c>
       <c r="L22" s="52"/>
@@ -9208,8 +9261,18 @@
         <v>10</v>
       </c>
       <c r="F23" s="78"/>
-      <c r="G23" s="79"/>
-      <c r="L23" s="44"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="34">
+        <v>104</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="L23" s="52"/>
       <c r="M23" s="34">
         <v>93</v>
       </c>
@@ -9227,7 +9290,7 @@
       </c>
       <c r="R23" s="35"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="51">
         <v>16</v>
       </c>
@@ -9241,8 +9304,18 @@
         <v>10</v>
       </c>
       <c r="F24" s="78"/>
-      <c r="G24" s="79"/>
-      <c r="L24" s="44"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="33">
+        <v>105</v>
+      </c>
+      <c r="J24" s="123" t="s">
+        <v>349</v>
+      </c>
+      <c r="K24" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="L24" s="52"/>
       <c r="M24" s="34">
         <v>94</v>
       </c>
@@ -9411,7 +9484,7 @@
       <c r="G29" s="79"/>
       <c r="L29" s="44"/>
       <c r="M29" s="61">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="N29" s="80" t="s">
         <v>246</v>
@@ -9780,7 +9853,7 @@
       <c r="G40" s="79"/>
       <c r="L40" s="44"/>
       <c r="M40" s="61">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="N40" s="80" t="s">
         <v>247</v>
@@ -10149,7 +10222,7 @@
       <c r="G51" s="79"/>
       <c r="L51" s="91"/>
       <c r="M51" s="61">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="N51" s="80" t="s">
         <v>248</v>

--- a/Cnl/Mapeos_UBI_CNL_V1.xlsx
+++ b/Cnl/Mapeos_UBI_CNL_V1.xlsx
@@ -2739,6 +2739,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2796,19 +2809,6 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3287,7 +3287,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3298,7 +3298,7 @@
   <dimension ref="B1:R141"/>
   <sheetViews>
     <sheetView topLeftCell="L82" workbookViewId="0">
-      <selection activeCell="M133" sqref="M133:R133"/>
+      <selection activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3337,26 +3337,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="25" t="s">
@@ -3369,13 +3369,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="122"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="25" t="s">
         <v>350</v>
       </c>
@@ -3386,13 +3386,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="127"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="123"/>
+      <c r="H5" s="104"/>
       <c r="I5" s="29" t="s">
         <v>351</v>
       </c>
@@ -3407,29 +3407,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="119" t="s">
+      <c r="I7" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="120"/>
-      <c r="K7" s="121"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="103" t="s">
+      <c r="M7" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3856,22 +3856,22 @@
         <v>255</v>
       </c>
       <c r="L17" s="51"/>
-      <c r="M17" s="124">
+      <c r="M17" s="105">
         <v>36</v>
       </c>
-      <c r="N17" s="125" t="s">
+      <c r="N17" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="O17" s="125" t="s">
+      <c r="O17" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="123" t="s">
+      <c r="P17" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="125" t="s">
+      <c r="Q17" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="126" t="s">
+      <c r="R17" s="107" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4335,22 +4335,22 @@
         <v>317</v>
       </c>
       <c r="L28" s="51"/>
-      <c r="M28" s="128">
+      <c r="M28" s="109">
         <v>36</v>
       </c>
-      <c r="N28" s="125" t="s">
+      <c r="N28" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="O28" s="123" t="s">
+      <c r="O28" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="P28" s="123" t="s">
+      <c r="P28" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="125" t="s">
+      <c r="Q28" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="R28" s="126" t="s">
+      <c r="R28" s="107" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4764,22 +4764,22 @@
       <c r="F39" s="70"/>
       <c r="G39" s="71"/>
       <c r="L39" s="44"/>
-      <c r="M39" s="128">
+      <c r="M39" s="109">
         <v>36</v>
       </c>
-      <c r="N39" s="125" t="s">
+      <c r="N39" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="123" t="s">
+      <c r="O39" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="P39" s="123" t="s">
+      <c r="P39" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="125" t="s">
+      <c r="Q39" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="R39" s="126" t="s">
+      <c r="R39" s="107" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5077,22 +5077,22 @@
     </row>
     <row r="50" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L50" s="44"/>
-      <c r="M50" s="128">
+      <c r="M50" s="109">
         <v>36</v>
       </c>
-      <c r="N50" s="125" t="s">
+      <c r="N50" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="O50" s="123" t="s">
+      <c r="O50" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="P50" s="123" t="s">
+      <c r="P50" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="125" t="s">
+      <c r="Q50" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="R50" s="126" t="s">
+      <c r="R50" s="107" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5292,22 +5292,22 @@
     </row>
     <row r="61" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L61" s="44"/>
-      <c r="M61" s="128">
+      <c r="M61" s="109">
         <v>36</v>
       </c>
-      <c r="N61" s="125" t="s">
+      <c r="N61" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="O61" s="123" t="s">
+      <c r="O61" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="P61" s="123" t="s">
+      <c r="P61" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q61" s="125" t="s">
+      <c r="Q61" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="R61" s="126" t="s">
+      <c r="R61" s="107" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5507,22 +5507,22 @@
     </row>
     <row r="72" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L72" s="44"/>
-      <c r="M72" s="128">
+      <c r="M72" s="109">
         <v>36</v>
       </c>
-      <c r="N72" s="125" t="s">
+      <c r="N72" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="O72" s="123" t="s">
+      <c r="O72" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="P72" s="123" t="s">
+      <c r="P72" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q72" s="125" t="s">
+      <c r="Q72" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="R72" s="126" t="s">
+      <c r="R72" s="107" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5722,22 +5722,22 @@
     </row>
     <row r="83" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L83" s="44"/>
-      <c r="M83" s="128">
+      <c r="M83" s="109">
         <v>36</v>
       </c>
-      <c r="N83" s="125" t="s">
+      <c r="N83" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="O83" s="123" t="s">
+      <c r="O83" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="P83" s="123" t="s">
+      <c r="P83" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q83" s="125" t="s">
+      <c r="Q83" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="R83" s="126" t="s">
+      <c r="R83" s="107" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
         <v>39</v>
       </c>
       <c r="Q91" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R91" s="35"/>
     </row>
@@ -6332,22 +6332,22 @@
     </row>
     <row r="115" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L115" s="86"/>
-      <c r="M115" s="129">
+      <c r="M115" s="110">
         <v>63</v>
       </c>
-      <c r="N115" s="130" t="s">
+      <c r="N115" s="111" t="s">
         <v>311</v>
       </c>
-      <c r="O115" s="131" t="s">
+      <c r="O115" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="P115" s="131" t="s">
+      <c r="P115" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="Q115" s="131" t="s">
+      <c r="Q115" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="R115" s="132" t="s">
+      <c r="R115" s="113" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6511,22 +6511,22 @@
     </row>
     <row r="124" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L124" s="86"/>
-      <c r="M124" s="129">
+      <c r="M124" s="110">
         <v>63</v>
       </c>
-      <c r="N124" s="130" t="s">
+      <c r="N124" s="111" t="s">
         <v>313</v>
       </c>
-      <c r="O124" s="131" t="s">
+      <c r="O124" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="P124" s="131" t="s">
+      <c r="P124" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="Q124" s="131" t="s">
+      <c r="Q124" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="R124" s="132" t="s">
+      <c r="R124" s="113" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6690,22 +6690,22 @@
     </row>
     <row r="133" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L133" s="86"/>
-      <c r="M133" s="129">
+      <c r="M133" s="110">
         <v>63</v>
       </c>
-      <c r="N133" s="130" t="s">
+      <c r="N133" s="111" t="s">
         <v>315</v>
       </c>
-      <c r="O133" s="131" t="s">
+      <c r="O133" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="P133" s="131" t="s">
+      <c r="P133" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="Q133" s="131" t="s">
+      <c r="Q133" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="R133" s="132" t="s">
+      <c r="R133" s="113" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
   <dimension ref="B1:R51"/>
   <sheetViews>
     <sheetView topLeftCell="K34" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28:R28"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6926,26 +6926,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="25" t="s">
@@ -6958,13 +6958,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="122"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="25" t="s">
         <v>350</v>
       </c>
@@ -6975,13 +6975,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="127"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="123"/>
+      <c r="H5" s="104"/>
       <c r="I5" s="29" t="s">
         <v>351</v>
       </c>
@@ -6996,29 +6996,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="119" t="s">
+      <c r="I7" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="120"/>
-      <c r="K7" s="121"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="103" t="s">
+      <c r="M7" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -7443,22 +7443,22 @@
         <v>269</v>
       </c>
       <c r="L17" s="51"/>
-      <c r="M17" s="124">
+      <c r="M17" s="105">
         <v>26</v>
       </c>
-      <c r="N17" s="125" t="s">
+      <c r="N17" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="O17" s="123" t="s">
+      <c r="O17" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="123" t="s">
+      <c r="P17" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="123" t="s">
+      <c r="Q17" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="126" t="s">
+      <c r="R17" s="107" t="s">
         <v>250</v>
       </c>
     </row>
@@ -7864,22 +7864,22 @@
       <c r="F28" s="70"/>
       <c r="G28" s="71"/>
       <c r="L28" s="44"/>
-      <c r="M28" s="124">
+      <c r="M28" s="105">
         <v>26</v>
       </c>
-      <c r="N28" s="125" t="s">
+      <c r="N28" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="O28" s="123" t="s">
+      <c r="O28" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="P28" s="123" t="s">
+      <c r="P28" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="123" t="s">
+      <c r="Q28" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="R28" s="126" t="s">
+      <c r="R28" s="107" t="s">
         <v>250</v>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
         <v>39</v>
       </c>
       <c r="Q36" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R36" s="35"/>
     </row>
@@ -8485,8 +8485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L70" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50:R50"/>
+    <sheetView tabSelected="1" topLeftCell="L47" workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8523,26 +8523,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="25" t="s">
@@ -8555,13 +8555,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="122"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="25" t="s">
         <v>350</v>
       </c>
@@ -8572,13 +8572,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="127"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="123"/>
+      <c r="H5" s="104"/>
       <c r="I5" s="29" t="s">
         <v>351</v>
       </c>
@@ -8593,29 +8593,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="119" t="s">
+      <c r="I7" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="120"/>
-      <c r="K7" s="121"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="103" t="s">
+      <c r="M7" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9042,22 +9042,22 @@
         <v>273</v>
       </c>
       <c r="L17" s="51"/>
-      <c r="M17" s="124">
+      <c r="M17" s="105">
         <v>87</v>
       </c>
-      <c r="N17" s="125" t="s">
+      <c r="N17" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="O17" s="123" t="s">
+      <c r="O17" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="123" t="s">
+      <c r="P17" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="123" t="s">
+      <c r="Q17" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="126" t="s">
+      <c r="R17" s="107" t="s">
         <v>250</v>
       </c>
     </row>
@@ -9481,22 +9481,22 @@
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
       <c r="L28" s="44"/>
-      <c r="M28" s="124">
+      <c r="M28" s="105">
         <v>87</v>
       </c>
-      <c r="N28" s="125" t="s">
+      <c r="N28" s="106" t="s">
         <v>245</v>
       </c>
-      <c r="O28" s="123" t="s">
+      <c r="O28" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="P28" s="123" t="s">
+      <c r="P28" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="123" t="s">
+      <c r="Q28" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="R28" s="127" t="s">
+      <c r="R28" s="108" t="s">
         <v>250</v>
       </c>
     </row>
@@ -9850,22 +9850,22 @@
       <c r="F39" s="76"/>
       <c r="G39" s="77"/>
       <c r="L39" s="44"/>
-      <c r="M39" s="124">
+      <c r="M39" s="105">
         <v>87</v>
       </c>
-      <c r="N39" s="125" t="s">
+      <c r="N39" s="106" t="s">
         <v>246</v>
       </c>
-      <c r="O39" s="123" t="s">
+      <c r="O39" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="P39" s="123" t="s">
+      <c r="P39" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="123" t="s">
+      <c r="Q39" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="R39" s="127" t="s">
+      <c r="R39" s="108" t="s">
         <v>250</v>
       </c>
     </row>
@@ -10219,22 +10219,22 @@
       <c r="F50" s="76"/>
       <c r="G50" s="77"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="124">
+      <c r="M50" s="105">
         <v>87</v>
       </c>
-      <c r="N50" s="125" t="s">
+      <c r="N50" s="106" t="s">
         <v>247</v>
       </c>
-      <c r="O50" s="123" t="s">
+      <c r="O50" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="P50" s="123" t="s">
+      <c r="P50" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="123" t="s">
+      <c r="Q50" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="R50" s="127" t="s">
+      <c r="R50" s="108" t="s">
         <v>250</v>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
         <v>39</v>
       </c>
       <c r="Q58" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R58" s="35"/>
     </row>

--- a/Cnl/Mapeos_UBI_CNL_V1.xlsx
+++ b/Cnl/Mapeos_UBI_CNL_V1.xlsx
@@ -2571,7 +2571,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2752,10 +2752,22 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2808,6 +2820,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -3297,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R141"/>
   <sheetViews>
-    <sheetView topLeftCell="L82" workbookViewId="0">
-      <selection activeCell="O92" sqref="O92"/>
+    <sheetView topLeftCell="L103" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3318,7 +3336,7 @@
     <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="11.42578125" style="2"/>
@@ -3337,26 +3355,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="121"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="25" t="s">
@@ -3369,11 +3387,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
       <c r="H4" s="103"/>
       <c r="I4" s="25" t="s">
@@ -3386,11 +3404,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="126"/>
-      <c r="F5" s="127"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
       <c r="H5" s="104"/>
       <c r="I5" s="29" t="s">
@@ -3407,29 +3425,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="130" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="131"/>
-      <c r="K7" s="132"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="114" t="s">
+      <c r="M7" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3461,22 +3479,22 @@
         <v>11</v>
       </c>
       <c r="L8" s="12"/>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="Q8" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="116" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5908,7 +5926,7 @@
         <v>282</v>
       </c>
       <c r="Q92" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R92" s="35"/>
     </row>
@@ -5946,7 +5964,7 @@
         <v>286</v>
       </c>
       <c r="Q94" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R94" s="35"/>
     </row>
@@ -5965,7 +5983,7 @@
         <v>288</v>
       </c>
       <c r="Q95" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R95" s="35"/>
     </row>
@@ -5984,7 +6002,7 @@
         <v>89</v>
       </c>
       <c r="Q96" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R96" s="35"/>
     </row>
@@ -6003,7 +6021,7 @@
         <v>286</v>
       </c>
       <c r="Q97" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R97" s="35"/>
     </row>
@@ -6022,7 +6040,7 @@
         <v>39</v>
       </c>
       <c r="Q98" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R98" s="35"/>
     </row>
@@ -6041,7 +6059,7 @@
         <v>286</v>
       </c>
       <c r="Q99" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R99" s="35"/>
     </row>
@@ -6098,7 +6116,7 @@
         <v>296</v>
       </c>
       <c r="Q102" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R102" s="35"/>
     </row>
@@ -6212,7 +6230,7 @@
         <v>296</v>
       </c>
       <c r="Q108" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R108" s="35"/>
     </row>
@@ -6888,8 +6906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="K34" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView topLeftCell="K28" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39:Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6926,26 +6944,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="121"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="25" t="s">
@@ -6958,11 +6976,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
       <c r="H4" s="103"/>
       <c r="I4" s="25" t="s">
@@ -6975,11 +6993,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="126"/>
-      <c r="F5" s="127"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
       <c r="H5" s="104"/>
       <c r="I5" s="29" t="s">
@@ -6996,29 +7014,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="130" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="131"/>
-      <c r="K7" s="132"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="114" t="s">
+      <c r="M7" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8178,7 +8196,7 @@
         <v>282</v>
       </c>
       <c r="Q37" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R37" s="35"/>
     </row>
@@ -8230,7 +8248,7 @@
         <v>286</v>
       </c>
       <c r="Q39" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R39" s="35"/>
     </row>
@@ -8249,7 +8267,7 @@
         <v>288</v>
       </c>
       <c r="Q40" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R40" s="35"/>
     </row>
@@ -8268,7 +8286,7 @@
         <v>89</v>
       </c>
       <c r="Q41" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R41" s="35"/>
     </row>
@@ -8287,7 +8305,7 @@
         <v>286</v>
       </c>
       <c r="Q42" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R42" s="35"/>
     </row>
@@ -8306,7 +8324,7 @@
         <v>39</v>
       </c>
       <c r="Q43" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R43" s="35"/>
     </row>
@@ -8325,7 +8343,7 @@
         <v>286</v>
       </c>
       <c r="Q44" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R44" s="35"/>
     </row>
@@ -8384,7 +8402,7 @@
         <v>296</v>
       </c>
       <c r="Q47" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R47" s="35"/>
     </row>
@@ -8485,8 +8503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L47" workbookViewId="0">
-      <selection activeCell="Q57" sqref="Q57"/>
+    <sheetView tabSelected="1" topLeftCell="L58" workbookViewId="0">
+      <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8523,26 +8541,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="121"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="25" t="s">
@@ -8555,11 +8573,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
       <c r="H4" s="103"/>
       <c r="I4" s="25" t="s">
@@ -8572,11 +8590,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="126"/>
-      <c r="F5" s="127"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
       <c r="H5" s="104"/>
       <c r="I5" s="29" t="s">
@@ -8593,29 +8611,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="130" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="131"/>
-      <c r="K7" s="132"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="114" t="s">
+      <c r="M7" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10532,8 +10550,8 @@
       <c r="P59" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="Q59" s="62" t="s">
-        <v>18</v>
+      <c r="Q59" s="39" t="s">
+        <v>21</v>
       </c>
       <c r="R59" s="35"/>
     </row>
@@ -10599,7 +10617,7 @@
         <v>286</v>
       </c>
       <c r="Q61" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R61" s="35"/>
     </row>
@@ -10632,7 +10650,7 @@
         <v>288</v>
       </c>
       <c r="Q62" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R62" s="35"/>
     </row>
@@ -10665,7 +10683,7 @@
         <v>89</v>
       </c>
       <c r="Q63" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R63" s="35"/>
     </row>
@@ -10698,7 +10716,7 @@
         <v>286</v>
       </c>
       <c r="Q64" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R64" s="35"/>
     </row>
@@ -10731,7 +10749,7 @@
         <v>39</v>
       </c>
       <c r="Q65" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R65" s="35"/>
     </row>
@@ -10764,7 +10782,7 @@
         <v>286</v>
       </c>
       <c r="Q66" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R66" s="35"/>
     </row>
@@ -10863,7 +10881,7 @@
         <v>296</v>
       </c>
       <c r="Q69" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R69" s="35"/>
     </row>
@@ -11061,7 +11079,7 @@
         <v>296</v>
       </c>
       <c r="Q75" s="62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R75" s="35"/>
     </row>
